--- a/input/CvT_data_template_articles.xlsx
+++ b/input/CvT_data_template_articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/wall_taylor_epa_gov/Documents/Profile/Desktop/cvtdbLoad/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{CFF19FB8-F332-41A8-9926-AD247F946B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="6_{CFF19FB8-F332-41A8-9926-AD247F946B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B42A6336-C219-4928-829A-11F22F985D51}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25590" yWindow="1680" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>conc_bound_type</t>
+  </si>
+  <si>
+    <t>health_status</t>
+  </si>
+  <si>
+    <t>clowder_file_id</t>
   </si>
 </sst>
 </file>
@@ -640,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E831F9-6B15-4914-9CE1-426B4CF01319}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,11 +662,11 @@
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -692,10 +698,13 @@
         <v>52</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C2" s="13"/>
     </row>
   </sheetData>
@@ -822,10 +831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AR387"/>
+  <dimension ref="A1:AS387"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,15 +843,16 @@
     <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -856,30 +866,32 @@
         <v>15</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -911,20 +923,21 @@
       <c r="AP1" s="11"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="11"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS1" s="11"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -957,8 +970,9 @@
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS2" s="3"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -970,7 +984,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1003,8 +1017,9 @@
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS3" s="3"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1016,7 +1031,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1049,8 +1064,9 @@
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS4" s="3"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1062,7 +1078,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1095,8 +1111,9 @@
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS5" s="3"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1108,7 +1125,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1141,8 +1158,9 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS6" s="3"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1154,7 +1172,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1187,8 +1205,9 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS7" s="3"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1200,7 +1219,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1233,8 +1252,9 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS8" s="3"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1246,7 +1266,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1279,8 +1299,9 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS9" s="3"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1292,7 +1313,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1325,8 +1346,9 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS10" s="3"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1338,7 +1360,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1371,8 +1393,9 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS11" s="3"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1384,7 +1407,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1417,8 +1440,9 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS12" s="3"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1430,7 +1454,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1463,8 +1487,9 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS13" s="3"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1476,7 +1501,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1509,8 +1534,9 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS14" s="3"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1522,7 +1548,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1555,8 +1581,9 @@
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS15" s="3"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1568,7 +1595,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1601,8 +1628,9 @@
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS16" s="3"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1614,7 +1642,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1647,8 +1675,9 @@
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS17" s="3"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1660,7 +1689,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1693,8 +1722,9 @@
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS18" s="3"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1706,7 +1736,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1739,8 +1769,9 @@
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS19" s="3"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1752,7 +1783,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1785,8 +1816,9 @@
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS20" s="3"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1798,7 +1830,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1831,8 +1863,9 @@
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS21" s="3"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1844,7 +1877,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -1877,8 +1910,9 @@
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS22" s="3"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1890,7 +1924,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1923,8 +1957,9 @@
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS23" s="3"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1936,7 +1971,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1969,8 +2004,9 @@
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS24" s="3"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1982,7 +2018,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2015,8 +2051,9 @@
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS25" s="3"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2028,7 +2065,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2061,8 +2098,9 @@
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS26" s="3"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2074,7 +2112,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2107,8 +2145,9 @@
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS27" s="3"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2120,7 +2159,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2153,8 +2192,9 @@
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS28" s="3"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2166,7 +2206,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2199,8 +2239,9 @@
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS29" s="3"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2212,7 +2253,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -2245,8 +2286,9 @@
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS30" s="3"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2258,7 +2300,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -2291,8 +2333,9 @@
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS31" s="3"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2304,7 +2347,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -2337,8 +2380,9 @@
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS32" s="3"/>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2350,7 +2394,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2383,8 +2427,9 @@
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS33" s="3"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2396,7 +2441,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -2429,8 +2474,9 @@
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS34" s="3"/>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2442,7 +2488,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -2475,8 +2521,9 @@
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS35" s="3"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2488,7 +2535,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -2521,8 +2568,9 @@
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS36" s="3"/>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2534,7 +2582,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -2567,8 +2615,9 @@
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS37" s="3"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2580,7 +2629,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="4"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -2613,8 +2662,9 @@
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS38" s="3"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2626,7 +2676,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="3"/>
+      <c r="L39" s="4"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -2659,8 +2709,9 @@
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS39" s="3"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2672,7 +2723,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="3"/>
+      <c r="L40" s="4"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -2705,8 +2756,9 @@
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
       <c r="AR40" s="3"/>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS40" s="3"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2718,7 +2770,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="4"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -2751,8 +2803,9 @@
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS41" s="3"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2764,7 +2817,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="4"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -2797,8 +2850,9 @@
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS42" s="3"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2810,7 +2864,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="4"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -2843,8 +2897,9 @@
       <c r="AP43" s="3"/>
       <c r="AQ43" s="3"/>
       <c r="AR43" s="3"/>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS43" s="3"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2856,7 +2911,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -2889,8 +2944,9 @@
       <c r="AP44" s="3"/>
       <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS44" s="3"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2902,7 +2958,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="4"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -2935,8 +2991,9 @@
       <c r="AP45" s="3"/>
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS45" s="3"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2948,7 +3005,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="4"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -2981,8 +3038,9 @@
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
       <c r="AR46" s="3"/>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS46" s="3"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2994,7 +3052,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="3"/>
+      <c r="L47" s="4"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -3027,8 +3085,9 @@
       <c r="AP47" s="3"/>
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS47" s="3"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3040,7 +3099,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -3073,8 +3132,9 @@
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3"/>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS48" s="3"/>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3086,7 +3146,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -3119,8 +3179,9 @@
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS49" s="3"/>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3132,7 +3193,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="3"/>
+      <c r="L50" s="4"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -3165,8 +3226,9 @@
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS50" s="3"/>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3178,7 +3240,7 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="3"/>
+      <c r="L51" s="4"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -3211,8 +3273,9 @@
       <c r="AP51" s="3"/>
       <c r="AQ51" s="3"/>
       <c r="AR51" s="3"/>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS51" s="3"/>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3257,8 +3320,9 @@
       <c r="AP52" s="3"/>
       <c r="AQ52" s="3"/>
       <c r="AR52" s="3"/>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS52" s="3"/>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3303,8 +3367,9 @@
       <c r="AP53" s="3"/>
       <c r="AQ53" s="3"/>
       <c r="AR53" s="3"/>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS53" s="3"/>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3349,8 +3414,9 @@
       <c r="AP54" s="3"/>
       <c r="AQ54" s="3"/>
       <c r="AR54" s="3"/>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS54" s="3"/>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3395,8 +3461,9 @@
       <c r="AP55" s="3"/>
       <c r="AQ55" s="3"/>
       <c r="AR55" s="3"/>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS55" s="3"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3441,8 +3508,9 @@
       <c r="AP56" s="3"/>
       <c r="AQ56" s="3"/>
       <c r="AR56" s="3"/>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS56" s="3"/>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3487,8 +3555,9 @@
       <c r="AP57" s="3"/>
       <c r="AQ57" s="3"/>
       <c r="AR57" s="3"/>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS57" s="3"/>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3533,8 +3602,9 @@
       <c r="AP58" s="3"/>
       <c r="AQ58" s="3"/>
       <c r="AR58" s="3"/>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS58" s="3"/>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3579,8 +3649,9 @@
       <c r="AP59" s="3"/>
       <c r="AQ59" s="3"/>
       <c r="AR59" s="3"/>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS59" s="3"/>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3625,8 +3696,9 @@
       <c r="AP60" s="3"/>
       <c r="AQ60" s="3"/>
       <c r="AR60" s="3"/>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS60" s="3"/>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3671,8 +3743,9 @@
       <c r="AP61" s="3"/>
       <c r="AQ61" s="3"/>
       <c r="AR61" s="3"/>
-    </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS61" s="3"/>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3717,8 +3790,9 @@
       <c r="AP62" s="3"/>
       <c r="AQ62" s="3"/>
       <c r="AR62" s="3"/>
-    </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS62" s="3"/>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3763,8 +3837,9 @@
       <c r="AP63" s="3"/>
       <c r="AQ63" s="3"/>
       <c r="AR63" s="3"/>
-    </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS63" s="3"/>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3809,8 +3884,9 @@
       <c r="AP64" s="3"/>
       <c r="AQ64" s="3"/>
       <c r="AR64" s="3"/>
-    </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS64" s="3"/>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3855,8 +3931,9 @@
       <c r="AP65" s="3"/>
       <c r="AQ65" s="3"/>
       <c r="AR65" s="3"/>
-    </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS65" s="3"/>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3901,8 +3978,9 @@
       <c r="AP66" s="3"/>
       <c r="AQ66" s="3"/>
       <c r="AR66" s="3"/>
-    </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS66" s="3"/>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3947,8 +4025,9 @@
       <c r="AP67" s="3"/>
       <c r="AQ67" s="3"/>
       <c r="AR67" s="3"/>
-    </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS67" s="3"/>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3993,8 +4072,9 @@
       <c r="AP68" s="3"/>
       <c r="AQ68" s="3"/>
       <c r="AR68" s="3"/>
-    </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS68" s="3"/>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4039,8 +4119,9 @@
       <c r="AP69" s="3"/>
       <c r="AQ69" s="3"/>
       <c r="AR69" s="3"/>
-    </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS69" s="3"/>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4085,8 +4166,9 @@
       <c r="AP70" s="3"/>
       <c r="AQ70" s="3"/>
       <c r="AR70" s="3"/>
-    </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS70" s="3"/>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4131,8 +4213,9 @@
       <c r="AP71" s="3"/>
       <c r="AQ71" s="3"/>
       <c r="AR71" s="3"/>
-    </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS71" s="3"/>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4177,8 +4260,9 @@
       <c r="AP72" s="3"/>
       <c r="AQ72" s="3"/>
       <c r="AR72" s="3"/>
-    </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS72" s="3"/>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4223,8 +4307,9 @@
       <c r="AP73" s="3"/>
       <c r="AQ73" s="3"/>
       <c r="AR73" s="3"/>
-    </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS73" s="3"/>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4269,8 +4354,9 @@
       <c r="AP74" s="3"/>
       <c r="AQ74" s="3"/>
       <c r="AR74" s="3"/>
-    </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS74" s="3"/>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4315,8 +4401,9 @@
       <c r="AP75" s="3"/>
       <c r="AQ75" s="3"/>
       <c r="AR75" s="3"/>
-    </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS75" s="3"/>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4361,8 +4448,9 @@
       <c r="AP76" s="3"/>
       <c r="AQ76" s="3"/>
       <c r="AR76" s="3"/>
-    </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS76" s="3"/>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4407,8 +4495,9 @@
       <c r="AP77" s="3"/>
       <c r="AQ77" s="3"/>
       <c r="AR77" s="3"/>
-    </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS77" s="3"/>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4453,8 +4542,9 @@
       <c r="AP78" s="3"/>
       <c r="AQ78" s="3"/>
       <c r="AR78" s="3"/>
-    </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS78" s="3"/>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4499,8 +4589,9 @@
       <c r="AP79" s="3"/>
       <c r="AQ79" s="3"/>
       <c r="AR79" s="3"/>
-    </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS79" s="3"/>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4545,8 +4636,9 @@
       <c r="AP80" s="3"/>
       <c r="AQ80" s="3"/>
       <c r="AR80" s="3"/>
-    </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS80" s="3"/>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4591,8 +4683,9 @@
       <c r="AP81" s="3"/>
       <c r="AQ81" s="3"/>
       <c r="AR81" s="3"/>
-    </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS81" s="3"/>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4637,8 +4730,9 @@
       <c r="AP82" s="3"/>
       <c r="AQ82" s="3"/>
       <c r="AR82" s="3"/>
-    </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS82" s="3"/>
+    </row>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4683,8 +4777,9 @@
       <c r="AP83" s="3"/>
       <c r="AQ83" s="3"/>
       <c r="AR83" s="3"/>
-    </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS83" s="3"/>
+    </row>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4729,8 +4824,9 @@
       <c r="AP84" s="3"/>
       <c r="AQ84" s="3"/>
       <c r="AR84" s="3"/>
-    </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS84" s="3"/>
+    </row>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4775,8 +4871,9 @@
       <c r="AP85" s="3"/>
       <c r="AQ85" s="3"/>
       <c r="AR85" s="3"/>
-    </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS85" s="3"/>
+    </row>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4821,8 +4918,9 @@
       <c r="AP86" s="3"/>
       <c r="AQ86" s="3"/>
       <c r="AR86" s="3"/>
-    </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS86" s="3"/>
+    </row>
+    <row r="87" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4867,8 +4965,9 @@
       <c r="AP87" s="3"/>
       <c r="AQ87" s="3"/>
       <c r="AR87" s="3"/>
-    </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS87" s="3"/>
+    </row>
+    <row r="88" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4913,8 +5012,9 @@
       <c r="AP88" s="3"/>
       <c r="AQ88" s="3"/>
       <c r="AR88" s="3"/>
-    </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS88" s="3"/>
+    </row>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4959,8 +5059,9 @@
       <c r="AP89" s="3"/>
       <c r="AQ89" s="3"/>
       <c r="AR89" s="3"/>
-    </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS89" s="3"/>
+    </row>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5005,8 +5106,9 @@
       <c r="AP90" s="3"/>
       <c r="AQ90" s="3"/>
       <c r="AR90" s="3"/>
-    </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS90" s="3"/>
+    </row>
+    <row r="91" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5051,8 +5153,9 @@
       <c r="AP91" s="3"/>
       <c r="AQ91" s="3"/>
       <c r="AR91" s="3"/>
-    </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS91" s="3"/>
+    </row>
+    <row r="92" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5097,8 +5200,9 @@
       <c r="AP92" s="3"/>
       <c r="AQ92" s="3"/>
       <c r="AR92" s="3"/>
-    </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS92" s="3"/>
+    </row>
+    <row r="93" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5143,8 +5247,9 @@
       <c r="AP93" s="3"/>
       <c r="AQ93" s="3"/>
       <c r="AR93" s="3"/>
-    </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS93" s="3"/>
+    </row>
+    <row r="94" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5189,8 +5294,9 @@
       <c r="AP94" s="3"/>
       <c r="AQ94" s="3"/>
       <c r="AR94" s="3"/>
-    </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS94" s="3"/>
+    </row>
+    <row r="95" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5235,8 +5341,9 @@
       <c r="AP95" s="3"/>
       <c r="AQ95" s="3"/>
       <c r="AR95" s="3"/>
-    </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS95" s="3"/>
+    </row>
+    <row r="96" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5281,8 +5388,9 @@
       <c r="AP96" s="3"/>
       <c r="AQ96" s="3"/>
       <c r="AR96" s="3"/>
-    </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS96" s="3"/>
+    </row>
+    <row r="97" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5327,8 +5435,9 @@
       <c r="AP97" s="3"/>
       <c r="AQ97" s="3"/>
       <c r="AR97" s="3"/>
-    </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS97" s="3"/>
+    </row>
+    <row r="98" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5373,8 +5482,9 @@
       <c r="AP98" s="3"/>
       <c r="AQ98" s="3"/>
       <c r="AR98" s="3"/>
-    </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS98" s="3"/>
+    </row>
+    <row r="99" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5419,8 +5529,9 @@
       <c r="AP99" s="3"/>
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
-    </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS99" s="3"/>
+    </row>
+    <row r="100" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5465,8 +5576,9 @@
       <c r="AP100" s="3"/>
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
-    </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS100" s="3"/>
+    </row>
+    <row r="101" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5511,8 +5623,9 @@
       <c r="AP101" s="3"/>
       <c r="AQ101" s="3"/>
       <c r="AR101" s="3"/>
-    </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS101" s="3"/>
+    </row>
+    <row r="102" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5557,8 +5670,9 @@
       <c r="AP102" s="3"/>
       <c r="AQ102" s="3"/>
       <c r="AR102" s="3"/>
-    </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS102" s="3"/>
+    </row>
+    <row r="103" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5603,8 +5717,9 @@
       <c r="AP103" s="3"/>
       <c r="AQ103" s="3"/>
       <c r="AR103" s="3"/>
-    </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS103" s="3"/>
+    </row>
+    <row r="104" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5649,8 +5764,9 @@
       <c r="AP104" s="3"/>
       <c r="AQ104" s="3"/>
       <c r="AR104" s="3"/>
-    </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS104" s="3"/>
+    </row>
+    <row r="105" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5695,8 +5811,9 @@
       <c r="AP105" s="3"/>
       <c r="AQ105" s="3"/>
       <c r="AR105" s="3"/>
-    </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS105" s="3"/>
+    </row>
+    <row r="106" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5741,8 +5858,9 @@
       <c r="AP106" s="3"/>
       <c r="AQ106" s="3"/>
       <c r="AR106" s="3"/>
-    </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS106" s="3"/>
+    </row>
+    <row r="107" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5787,8 +5905,9 @@
       <c r="AP107" s="3"/>
       <c r="AQ107" s="3"/>
       <c r="AR107" s="3"/>
-    </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS107" s="3"/>
+    </row>
+    <row r="108" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5833,8 +5952,9 @@
       <c r="AP108" s="3"/>
       <c r="AQ108" s="3"/>
       <c r="AR108" s="3"/>
-    </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS108" s="3"/>
+    </row>
+    <row r="109" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5879,8 +5999,9 @@
       <c r="AP109" s="3"/>
       <c r="AQ109" s="3"/>
       <c r="AR109" s="3"/>
-    </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS109" s="3"/>
+    </row>
+    <row r="110" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5925,8 +6046,9 @@
       <c r="AP110" s="3"/>
       <c r="AQ110" s="3"/>
       <c r="AR110" s="3"/>
-    </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS110" s="3"/>
+    </row>
+    <row r="111" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5971,8 +6093,9 @@
       <c r="AP111" s="3"/>
       <c r="AQ111" s="3"/>
       <c r="AR111" s="3"/>
-    </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS111" s="3"/>
+    </row>
+    <row r="112" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6017,8 +6140,9 @@
       <c r="AP112" s="3"/>
       <c r="AQ112" s="3"/>
       <c r="AR112" s="3"/>
-    </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS112" s="3"/>
+    </row>
+    <row r="113" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6063,8 +6187,9 @@
       <c r="AP113" s="3"/>
       <c r="AQ113" s="3"/>
       <c r="AR113" s="3"/>
-    </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS113" s="3"/>
+    </row>
+    <row r="114" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6109,8 +6234,9 @@
       <c r="AP114" s="3"/>
       <c r="AQ114" s="3"/>
       <c r="AR114" s="3"/>
-    </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS114" s="3"/>
+    </row>
+    <row r="115" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6155,8 +6281,9 @@
       <c r="AP115" s="3"/>
       <c r="AQ115" s="3"/>
       <c r="AR115" s="3"/>
-    </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS115" s="3"/>
+    </row>
+    <row r="116" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6201,8 +6328,9 @@
       <c r="AP116" s="3"/>
       <c r="AQ116" s="3"/>
       <c r="AR116" s="3"/>
-    </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS116" s="3"/>
+    </row>
+    <row r="117" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6247,8 +6375,9 @@
       <c r="AP117" s="3"/>
       <c r="AQ117" s="3"/>
       <c r="AR117" s="3"/>
-    </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS117" s="3"/>
+    </row>
+    <row r="118" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6293,8 +6422,9 @@
       <c r="AP118" s="3"/>
       <c r="AQ118" s="3"/>
       <c r="AR118" s="3"/>
-    </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS118" s="3"/>
+    </row>
+    <row r="119" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6339,8 +6469,9 @@
       <c r="AP119" s="3"/>
       <c r="AQ119" s="3"/>
       <c r="AR119" s="3"/>
-    </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS119" s="3"/>
+    </row>
+    <row r="120" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6385,8 +6516,9 @@
       <c r="AP120" s="3"/>
       <c r="AQ120" s="3"/>
       <c r="AR120" s="3"/>
-    </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS120" s="3"/>
+    </row>
+    <row r="121" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6431,8 +6563,9 @@
       <c r="AP121" s="3"/>
       <c r="AQ121" s="3"/>
       <c r="AR121" s="3"/>
-    </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS121" s="3"/>
+    </row>
+    <row r="122" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6477,8 +6610,9 @@
       <c r="AP122" s="3"/>
       <c r="AQ122" s="3"/>
       <c r="AR122" s="3"/>
-    </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS122" s="3"/>
+    </row>
+    <row r="123" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6523,8 +6657,9 @@
       <c r="AP123" s="3"/>
       <c r="AQ123" s="3"/>
       <c r="AR123" s="3"/>
-    </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS123" s="3"/>
+    </row>
+    <row r="124" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6569,8 +6704,9 @@
       <c r="AP124" s="3"/>
       <c r="AQ124" s="3"/>
       <c r="AR124" s="3"/>
-    </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS124" s="3"/>
+    </row>
+    <row r="125" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6615,8 +6751,9 @@
       <c r="AP125" s="3"/>
       <c r="AQ125" s="3"/>
       <c r="AR125" s="3"/>
-    </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS125" s="3"/>
+    </row>
+    <row r="126" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6661,8 +6798,9 @@
       <c r="AP126" s="3"/>
       <c r="AQ126" s="3"/>
       <c r="AR126" s="3"/>
-    </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS126" s="3"/>
+    </row>
+    <row r="127" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6707,8 +6845,9 @@
       <c r="AP127" s="3"/>
       <c r="AQ127" s="3"/>
       <c r="AR127" s="3"/>
-    </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS127" s="3"/>
+    </row>
+    <row r="128" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6753,8 +6892,9 @@
       <c r="AP128" s="3"/>
       <c r="AQ128" s="3"/>
       <c r="AR128" s="3"/>
-    </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS128" s="3"/>
+    </row>
+    <row r="129" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6799,8 +6939,9 @@
       <c r="AP129" s="3"/>
       <c r="AQ129" s="3"/>
       <c r="AR129" s="3"/>
-    </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS129" s="3"/>
+    </row>
+    <row r="130" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6845,8 +6986,9 @@
       <c r="AP130" s="3"/>
       <c r="AQ130" s="3"/>
       <c r="AR130" s="3"/>
-    </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS130" s="3"/>
+    </row>
+    <row r="131" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6891,8 +7033,9 @@
       <c r="AP131" s="3"/>
       <c r="AQ131" s="3"/>
       <c r="AR131" s="3"/>
-    </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS131" s="3"/>
+    </row>
+    <row r="132" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6937,8 +7080,9 @@
       <c r="AP132" s="3"/>
       <c r="AQ132" s="3"/>
       <c r="AR132" s="3"/>
-    </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS132" s="3"/>
+    </row>
+    <row r="133" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6983,8 +7127,9 @@
       <c r="AP133" s="3"/>
       <c r="AQ133" s="3"/>
       <c r="AR133" s="3"/>
-    </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS133" s="3"/>
+    </row>
+    <row r="134" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7029,8 +7174,9 @@
       <c r="AP134" s="3"/>
       <c r="AQ134" s="3"/>
       <c r="AR134" s="3"/>
-    </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS134" s="3"/>
+    </row>
+    <row r="135" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -7075,8 +7221,9 @@
       <c r="AP135" s="3"/>
       <c r="AQ135" s="3"/>
       <c r="AR135" s="3"/>
-    </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS135" s="3"/>
+    </row>
+    <row r="136" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -7121,8 +7268,9 @@
       <c r="AP136" s="3"/>
       <c r="AQ136" s="3"/>
       <c r="AR136" s="3"/>
-    </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS136" s="3"/>
+    </row>
+    <row r="137" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -7167,8 +7315,9 @@
       <c r="AP137" s="3"/>
       <c r="AQ137" s="3"/>
       <c r="AR137" s="3"/>
-    </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS137" s="3"/>
+    </row>
+    <row r="138" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -7213,8 +7362,9 @@
       <c r="AP138" s="3"/>
       <c r="AQ138" s="3"/>
       <c r="AR138" s="3"/>
-    </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS138" s="3"/>
+    </row>
+    <row r="139" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -7259,8 +7409,9 @@
       <c r="AP139" s="3"/>
       <c r="AQ139" s="3"/>
       <c r="AR139" s="3"/>
-    </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS139" s="3"/>
+    </row>
+    <row r="140" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -7305,8 +7456,9 @@
       <c r="AP140" s="3"/>
       <c r="AQ140" s="3"/>
       <c r="AR140" s="3"/>
-    </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS140" s="3"/>
+    </row>
+    <row r="141" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -7351,8 +7503,9 @@
       <c r="AP141" s="3"/>
       <c r="AQ141" s="3"/>
       <c r="AR141" s="3"/>
-    </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS141" s="3"/>
+    </row>
+    <row r="142" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -7397,8 +7550,9 @@
       <c r="AP142" s="3"/>
       <c r="AQ142" s="3"/>
       <c r="AR142" s="3"/>
-    </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS142" s="3"/>
+    </row>
+    <row r="143" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -7443,8 +7597,9 @@
       <c r="AP143" s="3"/>
       <c r="AQ143" s="3"/>
       <c r="AR143" s="3"/>
-    </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS143" s="3"/>
+    </row>
+    <row r="144" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7489,8 +7644,9 @@
       <c r="AP144" s="3"/>
       <c r="AQ144" s="3"/>
       <c r="AR144" s="3"/>
-    </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS144" s="3"/>
+    </row>
+    <row r="145" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -7535,8 +7691,9 @@
       <c r="AP145" s="3"/>
       <c r="AQ145" s="3"/>
       <c r="AR145" s="3"/>
-    </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS145" s="3"/>
+    </row>
+    <row r="146" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -7581,8 +7738,9 @@
       <c r="AP146" s="3"/>
       <c r="AQ146" s="3"/>
       <c r="AR146" s="3"/>
-    </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS146" s="3"/>
+    </row>
+    <row r="147" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -7627,8 +7785,9 @@
       <c r="AP147" s="3"/>
       <c r="AQ147" s="3"/>
       <c r="AR147" s="3"/>
-    </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS147" s="3"/>
+    </row>
+    <row r="148" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -7673,8 +7832,9 @@
       <c r="AP148" s="3"/>
       <c r="AQ148" s="3"/>
       <c r="AR148" s="3"/>
-    </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS148" s="3"/>
+    </row>
+    <row r="149" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -7719,8 +7879,9 @@
       <c r="AP149" s="3"/>
       <c r="AQ149" s="3"/>
       <c r="AR149" s="3"/>
-    </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS149" s="3"/>
+    </row>
+    <row r="150" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -7765,8 +7926,9 @@
       <c r="AP150" s="3"/>
       <c r="AQ150" s="3"/>
       <c r="AR150" s="3"/>
-    </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS150" s="3"/>
+    </row>
+    <row r="151" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -7811,8 +7973,9 @@
       <c r="AP151" s="3"/>
       <c r="AQ151" s="3"/>
       <c r="AR151" s="3"/>
-    </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS151" s="3"/>
+    </row>
+    <row r="152" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -7857,8 +8020,9 @@
       <c r="AP152" s="3"/>
       <c r="AQ152" s="3"/>
       <c r="AR152" s="3"/>
-    </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS152" s="3"/>
+    </row>
+    <row r="153" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -7903,8 +8067,9 @@
       <c r="AP153" s="3"/>
       <c r="AQ153" s="3"/>
       <c r="AR153" s="3"/>
-    </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS153" s="3"/>
+    </row>
+    <row r="154" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -7949,8 +8114,9 @@
       <c r="AP154" s="3"/>
       <c r="AQ154" s="3"/>
       <c r="AR154" s="3"/>
-    </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS154" s="3"/>
+    </row>
+    <row r="155" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -7995,8 +8161,9 @@
       <c r="AP155" s="3"/>
       <c r="AQ155" s="3"/>
       <c r="AR155" s="3"/>
-    </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS155" s="3"/>
+    </row>
+    <row r="156" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -8041,8 +8208,9 @@
       <c r="AP156" s="3"/>
       <c r="AQ156" s="3"/>
       <c r="AR156" s="3"/>
-    </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS156" s="3"/>
+    </row>
+    <row r="157" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -8087,8 +8255,9 @@
       <c r="AP157" s="3"/>
       <c r="AQ157" s="3"/>
       <c r="AR157" s="3"/>
-    </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS157" s="3"/>
+    </row>
+    <row r="158" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8133,8 +8302,9 @@
       <c r="AP158" s="3"/>
       <c r="AQ158" s="3"/>
       <c r="AR158" s="3"/>
-    </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS158" s="3"/>
+    </row>
+    <row r="159" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8179,8 +8349,9 @@
       <c r="AP159" s="3"/>
       <c r="AQ159" s="3"/>
       <c r="AR159" s="3"/>
-    </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS159" s="3"/>
+    </row>
+    <row r="160" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8225,8 +8396,9 @@
       <c r="AP160" s="3"/>
       <c r="AQ160" s="3"/>
       <c r="AR160" s="3"/>
-    </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS160" s="3"/>
+    </row>
+    <row r="161" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8271,8 +8443,9 @@
       <c r="AP161" s="3"/>
       <c r="AQ161" s="3"/>
       <c r="AR161" s="3"/>
-    </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS161" s="3"/>
+    </row>
+    <row r="162" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -8317,8 +8490,9 @@
       <c r="AP162" s="3"/>
       <c r="AQ162" s="3"/>
       <c r="AR162" s="3"/>
-    </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS162" s="3"/>
+    </row>
+    <row r="163" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -8363,8 +8537,9 @@
       <c r="AP163" s="3"/>
       <c r="AQ163" s="3"/>
       <c r="AR163" s="3"/>
-    </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS163" s="3"/>
+    </row>
+    <row r="164" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -8409,8 +8584,9 @@
       <c r="AP164" s="3"/>
       <c r="AQ164" s="3"/>
       <c r="AR164" s="3"/>
-    </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS164" s="3"/>
+    </row>
+    <row r="165" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -8455,8 +8631,9 @@
       <c r="AP165" s="3"/>
       <c r="AQ165" s="3"/>
       <c r="AR165" s="3"/>
-    </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS165" s="3"/>
+    </row>
+    <row r="166" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -8501,8 +8678,9 @@
       <c r="AP166" s="3"/>
       <c r="AQ166" s="3"/>
       <c r="AR166" s="3"/>
-    </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS166" s="3"/>
+    </row>
+    <row r="167" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -8547,8 +8725,9 @@
       <c r="AP167" s="3"/>
       <c r="AQ167" s="3"/>
       <c r="AR167" s="3"/>
-    </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS167" s="3"/>
+    </row>
+    <row r="168" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -8593,8 +8772,9 @@
       <c r="AP168" s="3"/>
       <c r="AQ168" s="3"/>
       <c r="AR168" s="3"/>
-    </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS168" s="3"/>
+    </row>
+    <row r="169" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -8639,8 +8819,9 @@
       <c r="AP169" s="3"/>
       <c r="AQ169" s="3"/>
       <c r="AR169" s="3"/>
-    </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS169" s="3"/>
+    </row>
+    <row r="170" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -8685,8 +8866,9 @@
       <c r="AP170" s="3"/>
       <c r="AQ170" s="3"/>
       <c r="AR170" s="3"/>
-    </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS170" s="3"/>
+    </row>
+    <row r="171" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -8731,8 +8913,9 @@
       <c r="AP171" s="3"/>
       <c r="AQ171" s="3"/>
       <c r="AR171" s="3"/>
-    </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS171" s="3"/>
+    </row>
+    <row r="172" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -8777,8 +8960,9 @@
       <c r="AP172" s="3"/>
       <c r="AQ172" s="3"/>
       <c r="AR172" s="3"/>
-    </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS172" s="3"/>
+    </row>
+    <row r="173" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -8823,8 +9007,9 @@
       <c r="AP173" s="3"/>
       <c r="AQ173" s="3"/>
       <c r="AR173" s="3"/>
-    </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS173" s="3"/>
+    </row>
+    <row r="174" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -8869,8 +9054,9 @@
       <c r="AP174" s="3"/>
       <c r="AQ174" s="3"/>
       <c r="AR174" s="3"/>
-    </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS174" s="3"/>
+    </row>
+    <row r="175" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -8915,8 +9101,9 @@
       <c r="AP175" s="3"/>
       <c r="AQ175" s="3"/>
       <c r="AR175" s="3"/>
-    </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS175" s="3"/>
+    </row>
+    <row r="176" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -8961,8 +9148,9 @@
       <c r="AP176" s="3"/>
       <c r="AQ176" s="3"/>
       <c r="AR176" s="3"/>
-    </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS176" s="3"/>
+    </row>
+    <row r="177" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -9007,8 +9195,9 @@
       <c r="AP177" s="3"/>
       <c r="AQ177" s="3"/>
       <c r="AR177" s="3"/>
-    </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS177" s="3"/>
+    </row>
+    <row r="178" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -9053,8 +9242,9 @@
       <c r="AP178" s="3"/>
       <c r="AQ178" s="3"/>
       <c r="AR178" s="3"/>
-    </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS178" s="3"/>
+    </row>
+    <row r="179" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -9099,8 +9289,9 @@
       <c r="AP179" s="3"/>
       <c r="AQ179" s="3"/>
       <c r="AR179" s="3"/>
-    </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS179" s="3"/>
+    </row>
+    <row r="180" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -9145,8 +9336,9 @@
       <c r="AP180" s="3"/>
       <c r="AQ180" s="3"/>
       <c r="AR180" s="3"/>
-    </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS180" s="3"/>
+    </row>
+    <row r="181" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -9191,8 +9383,9 @@
       <c r="AP181" s="3"/>
       <c r="AQ181" s="3"/>
       <c r="AR181" s="3"/>
-    </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS181" s="3"/>
+    </row>
+    <row r="182" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -9237,8 +9430,9 @@
       <c r="AP182" s="3"/>
       <c r="AQ182" s="3"/>
       <c r="AR182" s="3"/>
-    </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS182" s="3"/>
+    </row>
+    <row r="183" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -9283,8 +9477,9 @@
       <c r="AP183" s="3"/>
       <c r="AQ183" s="3"/>
       <c r="AR183" s="3"/>
-    </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS183" s="3"/>
+    </row>
+    <row r="184" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -9329,8 +9524,9 @@
       <c r="AP184" s="3"/>
       <c r="AQ184" s="3"/>
       <c r="AR184" s="3"/>
-    </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS184" s="3"/>
+    </row>
+    <row r="185" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -9375,8 +9571,9 @@
       <c r="AP185" s="3"/>
       <c r="AQ185" s="3"/>
       <c r="AR185" s="3"/>
-    </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS185" s="3"/>
+    </row>
+    <row r="186" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -9421,8 +9618,9 @@
       <c r="AP186" s="3"/>
       <c r="AQ186" s="3"/>
       <c r="AR186" s="3"/>
-    </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS186" s="3"/>
+    </row>
+    <row r="187" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -9467,8 +9665,9 @@
       <c r="AP187" s="3"/>
       <c r="AQ187" s="3"/>
       <c r="AR187" s="3"/>
-    </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS187" s="3"/>
+    </row>
+    <row r="188" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -9513,8 +9712,9 @@
       <c r="AP188" s="3"/>
       <c r="AQ188" s="3"/>
       <c r="AR188" s="3"/>
-    </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS188" s="3"/>
+    </row>
+    <row r="189" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -9559,8 +9759,9 @@
       <c r="AP189" s="3"/>
       <c r="AQ189" s="3"/>
       <c r="AR189" s="3"/>
-    </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS189" s="3"/>
+    </row>
+    <row r="190" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -9605,8 +9806,9 @@
       <c r="AP190" s="3"/>
       <c r="AQ190" s="3"/>
       <c r="AR190" s="3"/>
-    </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS190" s="3"/>
+    </row>
+    <row r="191" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -9651,8 +9853,9 @@
       <c r="AP191" s="3"/>
       <c r="AQ191" s="3"/>
       <c r="AR191" s="3"/>
-    </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS191" s="3"/>
+    </row>
+    <row r="192" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -9697,8 +9900,9 @@
       <c r="AP192" s="3"/>
       <c r="AQ192" s="3"/>
       <c r="AR192" s="3"/>
-    </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS192" s="3"/>
+    </row>
+    <row r="193" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -9743,8 +9947,9 @@
       <c r="AP193" s="3"/>
       <c r="AQ193" s="3"/>
       <c r="AR193" s="3"/>
-    </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS193" s="3"/>
+    </row>
+    <row r="194" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -9789,8 +9994,9 @@
       <c r="AP194" s="3"/>
       <c r="AQ194" s="3"/>
       <c r="AR194" s="3"/>
-    </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS194" s="3"/>
+    </row>
+    <row r="195" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -9835,8 +10041,9 @@
       <c r="AP195" s="3"/>
       <c r="AQ195" s="3"/>
       <c r="AR195" s="3"/>
-    </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS195" s="3"/>
+    </row>
+    <row r="196" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -9881,8 +10088,9 @@
       <c r="AP196" s="3"/>
       <c r="AQ196" s="3"/>
       <c r="AR196" s="3"/>
-    </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS196" s="3"/>
+    </row>
+    <row r="197" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -9927,8 +10135,9 @@
       <c r="AP197" s="3"/>
       <c r="AQ197" s="3"/>
       <c r="AR197" s="3"/>
-    </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS197" s="3"/>
+    </row>
+    <row r="198" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -9973,8 +10182,9 @@
       <c r="AP198" s="3"/>
       <c r="AQ198" s="3"/>
       <c r="AR198" s="3"/>
-    </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS198" s="3"/>
+    </row>
+    <row r="199" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10019,8 +10229,9 @@
       <c r="AP199" s="3"/>
       <c r="AQ199" s="3"/>
       <c r="AR199" s="3"/>
-    </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS199" s="3"/>
+    </row>
+    <row r="200" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10065,8 +10276,9 @@
       <c r="AP200" s="3"/>
       <c r="AQ200" s="3"/>
       <c r="AR200" s="3"/>
-    </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS200" s="3"/>
+    </row>
+    <row r="201" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -10111,8 +10323,9 @@
       <c r="AP201" s="3"/>
       <c r="AQ201" s="3"/>
       <c r="AR201" s="3"/>
-    </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS201" s="3"/>
+    </row>
+    <row r="202" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -10157,8 +10370,9 @@
       <c r="AP202" s="3"/>
       <c r="AQ202" s="3"/>
       <c r="AR202" s="3"/>
-    </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS202" s="3"/>
+    </row>
+    <row r="203" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -10203,8 +10417,9 @@
       <c r="AP203" s="3"/>
       <c r="AQ203" s="3"/>
       <c r="AR203" s="3"/>
-    </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS203" s="3"/>
+    </row>
+    <row r="204" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -10249,8 +10464,9 @@
       <c r="AP204" s="3"/>
       <c r="AQ204" s="3"/>
       <c r="AR204" s="3"/>
-    </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS204" s="3"/>
+    </row>
+    <row r="205" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -10295,8 +10511,9 @@
       <c r="AP205" s="3"/>
       <c r="AQ205" s="3"/>
       <c r="AR205" s="3"/>
-    </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS205" s="3"/>
+    </row>
+    <row r="206" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -10341,8 +10558,9 @@
       <c r="AP206" s="3"/>
       <c r="AQ206" s="3"/>
       <c r="AR206" s="3"/>
-    </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS206" s="3"/>
+    </row>
+    <row r="207" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -10387,8 +10605,9 @@
       <c r="AP207" s="3"/>
       <c r="AQ207" s="3"/>
       <c r="AR207" s="3"/>
-    </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS207" s="3"/>
+    </row>
+    <row r="208" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -10433,8 +10652,9 @@
       <c r="AP208" s="3"/>
       <c r="AQ208" s="3"/>
       <c r="AR208" s="3"/>
-    </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS208" s="3"/>
+    </row>
+    <row r="209" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -10479,8 +10699,9 @@
       <c r="AP209" s="3"/>
       <c r="AQ209" s="3"/>
       <c r="AR209" s="3"/>
-    </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS209" s="3"/>
+    </row>
+    <row r="210" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -10525,8 +10746,9 @@
       <c r="AP210" s="3"/>
       <c r="AQ210" s="3"/>
       <c r="AR210" s="3"/>
-    </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS210" s="3"/>
+    </row>
+    <row r="211" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -10571,8 +10793,9 @@
       <c r="AP211" s="3"/>
       <c r="AQ211" s="3"/>
       <c r="AR211" s="3"/>
-    </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS211" s="3"/>
+    </row>
+    <row r="212" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -10617,8 +10840,9 @@
       <c r="AP212" s="3"/>
       <c r="AQ212" s="3"/>
       <c r="AR212" s="3"/>
-    </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS212" s="3"/>
+    </row>
+    <row r="213" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -10663,8 +10887,9 @@
       <c r="AP213" s="3"/>
       <c r="AQ213" s="3"/>
       <c r="AR213" s="3"/>
-    </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS213" s="3"/>
+    </row>
+    <row r="214" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -10709,8 +10934,9 @@
       <c r="AP214" s="3"/>
       <c r="AQ214" s="3"/>
       <c r="AR214" s="3"/>
-    </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS214" s="3"/>
+    </row>
+    <row r="215" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -10755,8 +10981,9 @@
       <c r="AP215" s="3"/>
       <c r="AQ215" s="3"/>
       <c r="AR215" s="3"/>
-    </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS215" s="3"/>
+    </row>
+    <row r="216" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -10801,8 +11028,9 @@
       <c r="AP216" s="3"/>
       <c r="AQ216" s="3"/>
       <c r="AR216" s="3"/>
-    </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS216" s="3"/>
+    </row>
+    <row r="217" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -10847,8 +11075,9 @@
       <c r="AP217" s="3"/>
       <c r="AQ217" s="3"/>
       <c r="AR217" s="3"/>
-    </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS217" s="3"/>
+    </row>
+    <row r="218" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -10893,8 +11122,9 @@
       <c r="AP218" s="3"/>
       <c r="AQ218" s="3"/>
       <c r="AR218" s="3"/>
-    </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS218" s="3"/>
+    </row>
+    <row r="219" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -10939,8 +11169,9 @@
       <c r="AP219" s="3"/>
       <c r="AQ219" s="3"/>
       <c r="AR219" s="3"/>
-    </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS219" s="3"/>
+    </row>
+    <row r="220" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -10985,8 +11216,9 @@
       <c r="AP220" s="3"/>
       <c r="AQ220" s="3"/>
       <c r="AR220" s="3"/>
-    </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS220" s="3"/>
+    </row>
+    <row r="221" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -11031,8 +11263,9 @@
       <c r="AP221" s="3"/>
       <c r="AQ221" s="3"/>
       <c r="AR221" s="3"/>
-    </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS221" s="3"/>
+    </row>
+    <row r="222" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -11077,8 +11310,9 @@
       <c r="AP222" s="3"/>
       <c r="AQ222" s="3"/>
       <c r="AR222" s="3"/>
-    </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS222" s="3"/>
+    </row>
+    <row r="223" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -11123,8 +11357,9 @@
       <c r="AP223" s="3"/>
       <c r="AQ223" s="3"/>
       <c r="AR223" s="3"/>
-    </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS223" s="3"/>
+    </row>
+    <row r="224" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -11169,8 +11404,9 @@
       <c r="AP224" s="3"/>
       <c r="AQ224" s="3"/>
       <c r="AR224" s="3"/>
-    </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS224" s="3"/>
+    </row>
+    <row r="225" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -11215,8 +11451,9 @@
       <c r="AP225" s="3"/>
       <c r="AQ225" s="3"/>
       <c r="AR225" s="3"/>
-    </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS225" s="3"/>
+    </row>
+    <row r="226" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -11261,8 +11498,9 @@
       <c r="AP226" s="3"/>
       <c r="AQ226" s="3"/>
       <c r="AR226" s="3"/>
-    </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS226" s="3"/>
+    </row>
+    <row r="227" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -11307,8 +11545,9 @@
       <c r="AP227" s="3"/>
       <c r="AQ227" s="3"/>
       <c r="AR227" s="3"/>
-    </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS227" s="3"/>
+    </row>
+    <row r="228" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -11353,8 +11592,9 @@
       <c r="AP228" s="3"/>
       <c r="AQ228" s="3"/>
       <c r="AR228" s="3"/>
-    </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS228" s="3"/>
+    </row>
+    <row r="229" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -11399,8 +11639,9 @@
       <c r="AP229" s="3"/>
       <c r="AQ229" s="3"/>
       <c r="AR229" s="3"/>
-    </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS229" s="3"/>
+    </row>
+    <row r="230" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -11445,8 +11686,9 @@
       <c r="AP230" s="3"/>
       <c r="AQ230" s="3"/>
       <c r="AR230" s="3"/>
-    </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS230" s="3"/>
+    </row>
+    <row r="231" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -11491,8 +11733,9 @@
       <c r="AP231" s="3"/>
       <c r="AQ231" s="3"/>
       <c r="AR231" s="3"/>
-    </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS231" s="3"/>
+    </row>
+    <row r="232" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -11537,8 +11780,9 @@
       <c r="AP232" s="3"/>
       <c r="AQ232" s="3"/>
       <c r="AR232" s="3"/>
-    </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS232" s="3"/>
+    </row>
+    <row r="233" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -11583,8 +11827,9 @@
       <c r="AP233" s="3"/>
       <c r="AQ233" s="3"/>
       <c r="AR233" s="3"/>
-    </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS233" s="3"/>
+    </row>
+    <row r="234" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -11629,8 +11874,9 @@
       <c r="AP234" s="3"/>
       <c r="AQ234" s="3"/>
       <c r="AR234" s="3"/>
-    </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS234" s="3"/>
+    </row>
+    <row r="235" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -11675,8 +11921,9 @@
       <c r="AP235" s="3"/>
       <c r="AQ235" s="3"/>
       <c r="AR235" s="3"/>
-    </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS235" s="3"/>
+    </row>
+    <row r="236" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -11721,8 +11968,9 @@
       <c r="AP236" s="3"/>
       <c r="AQ236" s="3"/>
       <c r="AR236" s="3"/>
-    </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS236" s="3"/>
+    </row>
+    <row r="237" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -11767,8 +12015,9 @@
       <c r="AP237" s="3"/>
       <c r="AQ237" s="3"/>
       <c r="AR237" s="3"/>
-    </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS237" s="3"/>
+    </row>
+    <row r="238" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -11813,8 +12062,9 @@
       <c r="AP238" s="3"/>
       <c r="AQ238" s="3"/>
       <c r="AR238" s="3"/>
-    </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS238" s="3"/>
+    </row>
+    <row r="239" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -11859,8 +12109,9 @@
       <c r="AP239" s="3"/>
       <c r="AQ239" s="3"/>
       <c r="AR239" s="3"/>
-    </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS239" s="3"/>
+    </row>
+    <row r="240" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -11905,8 +12156,9 @@
       <c r="AP240" s="3"/>
       <c r="AQ240" s="3"/>
       <c r="AR240" s="3"/>
-    </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS240" s="3"/>
+    </row>
+    <row r="241" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -11951,8 +12203,9 @@
       <c r="AP241" s="3"/>
       <c r="AQ241" s="3"/>
       <c r="AR241" s="3"/>
-    </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS241" s="3"/>
+    </row>
+    <row r="242" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -11997,8 +12250,9 @@
       <c r="AP242" s="3"/>
       <c r="AQ242" s="3"/>
       <c r="AR242" s="3"/>
-    </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS242" s="3"/>
+    </row>
+    <row r="243" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -12043,8 +12297,9 @@
       <c r="AP243" s="3"/>
       <c r="AQ243" s="3"/>
       <c r="AR243" s="3"/>
-    </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS243" s="3"/>
+    </row>
+    <row r="244" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -12089,8 +12344,9 @@
       <c r="AP244" s="3"/>
       <c r="AQ244" s="3"/>
       <c r="AR244" s="3"/>
-    </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS244" s="3"/>
+    </row>
+    <row r="245" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -12135,8 +12391,9 @@
       <c r="AP245" s="3"/>
       <c r="AQ245" s="3"/>
       <c r="AR245" s="3"/>
-    </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS245" s="3"/>
+    </row>
+    <row r="246" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -12181,8 +12438,9 @@
       <c r="AP246" s="3"/>
       <c r="AQ246" s="3"/>
       <c r="AR246" s="3"/>
-    </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS246" s="3"/>
+    </row>
+    <row r="247" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -12227,8 +12485,9 @@
       <c r="AP247" s="3"/>
       <c r="AQ247" s="3"/>
       <c r="AR247" s="3"/>
-    </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS247" s="3"/>
+    </row>
+    <row r="248" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -12273,8 +12532,9 @@
       <c r="AP248" s="3"/>
       <c r="AQ248" s="3"/>
       <c r="AR248" s="3"/>
-    </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS248" s="3"/>
+    </row>
+    <row r="249" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -12319,8 +12579,9 @@
       <c r="AP249" s="3"/>
       <c r="AQ249" s="3"/>
       <c r="AR249" s="3"/>
-    </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS249" s="3"/>
+    </row>
+    <row r="250" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -12365,8 +12626,9 @@
       <c r="AP250" s="3"/>
       <c r="AQ250" s="3"/>
       <c r="AR250" s="3"/>
-    </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS250" s="3"/>
+    </row>
+    <row r="251" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -12411,8 +12673,9 @@
       <c r="AP251" s="3"/>
       <c r="AQ251" s="3"/>
       <c r="AR251" s="3"/>
-    </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS251" s="3"/>
+    </row>
+    <row r="252" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -12457,8 +12720,9 @@
       <c r="AP252" s="3"/>
       <c r="AQ252" s="3"/>
       <c r="AR252" s="3"/>
-    </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS252" s="3"/>
+    </row>
+    <row r="253" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -12503,8 +12767,9 @@
       <c r="AP253" s="3"/>
       <c r="AQ253" s="3"/>
       <c r="AR253" s="3"/>
-    </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS253" s="3"/>
+    </row>
+    <row r="254" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -12549,8 +12814,9 @@
       <c r="AP254" s="3"/>
       <c r="AQ254" s="3"/>
       <c r="AR254" s="3"/>
-    </row>
-    <row r="255" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS254" s="3"/>
+    </row>
+    <row r="255" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -12595,8 +12861,9 @@
       <c r="AP255" s="3"/>
       <c r="AQ255" s="3"/>
       <c r="AR255" s="3"/>
-    </row>
-    <row r="256" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS255" s="3"/>
+    </row>
+    <row r="256" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -12641,8 +12908,9 @@
       <c r="AP256" s="3"/>
       <c r="AQ256" s="3"/>
       <c r="AR256" s="3"/>
-    </row>
-    <row r="257" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS256" s="3"/>
+    </row>
+    <row r="257" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -12687,8 +12955,9 @@
       <c r="AP257" s="3"/>
       <c r="AQ257" s="3"/>
       <c r="AR257" s="3"/>
-    </row>
-    <row r="258" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS257" s="3"/>
+    </row>
+    <row r="258" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -12733,8 +13002,9 @@
       <c r="AP258" s="3"/>
       <c r="AQ258" s="3"/>
       <c r="AR258" s="3"/>
-    </row>
-    <row r="259" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS258" s="3"/>
+    </row>
+    <row r="259" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -12779,8 +13049,9 @@
       <c r="AP259" s="3"/>
       <c r="AQ259" s="3"/>
       <c r="AR259" s="3"/>
-    </row>
-    <row r="260" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS259" s="3"/>
+    </row>
+    <row r="260" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -12825,8 +13096,9 @@
       <c r="AP260" s="3"/>
       <c r="AQ260" s="3"/>
       <c r="AR260" s="3"/>
-    </row>
-    <row r="261" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS260" s="3"/>
+    </row>
+    <row r="261" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -12871,8 +13143,9 @@
       <c r="AP261" s="3"/>
       <c r="AQ261" s="3"/>
       <c r="AR261" s="3"/>
-    </row>
-    <row r="262" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS261" s="3"/>
+    </row>
+    <row r="262" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -12917,8 +13190,9 @@
       <c r="AP262" s="3"/>
       <c r="AQ262" s="3"/>
       <c r="AR262" s="3"/>
-    </row>
-    <row r="263" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS262" s="3"/>
+    </row>
+    <row r="263" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -12963,8 +13237,9 @@
       <c r="AP263" s="3"/>
       <c r="AQ263" s="3"/>
       <c r="AR263" s="3"/>
-    </row>
-    <row r="264" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS263" s="3"/>
+    </row>
+    <row r="264" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -13009,8 +13284,9 @@
       <c r="AP264" s="3"/>
       <c r="AQ264" s="3"/>
       <c r="AR264" s="3"/>
-    </row>
-    <row r="265" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS264" s="3"/>
+    </row>
+    <row r="265" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -13055,8 +13331,9 @@
       <c r="AP265" s="3"/>
       <c r="AQ265" s="3"/>
       <c r="AR265" s="3"/>
-    </row>
-    <row r="266" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS265" s="3"/>
+    </row>
+    <row r="266" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -13101,8 +13378,9 @@
       <c r="AP266" s="3"/>
       <c r="AQ266" s="3"/>
       <c r="AR266" s="3"/>
-    </row>
-    <row r="267" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS266" s="3"/>
+    </row>
+    <row r="267" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -13147,8 +13425,9 @@
       <c r="AP267" s="3"/>
       <c r="AQ267" s="3"/>
       <c r="AR267" s="3"/>
-    </row>
-    <row r="268" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS267" s="3"/>
+    </row>
+    <row r="268" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -13193,8 +13472,9 @@
       <c r="AP268" s="3"/>
       <c r="AQ268" s="3"/>
       <c r="AR268" s="3"/>
-    </row>
-    <row r="269" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS268" s="3"/>
+    </row>
+    <row r="269" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -13239,8 +13519,9 @@
       <c r="AP269" s="3"/>
       <c r="AQ269" s="3"/>
       <c r="AR269" s="3"/>
-    </row>
-    <row r="270" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS269" s="3"/>
+    </row>
+    <row r="270" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -13285,8 +13566,9 @@
       <c r="AP270" s="3"/>
       <c r="AQ270" s="3"/>
       <c r="AR270" s="3"/>
-    </row>
-    <row r="271" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS270" s="3"/>
+    </row>
+    <row r="271" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -13331,8 +13613,9 @@
       <c r="AP271" s="3"/>
       <c r="AQ271" s="3"/>
       <c r="AR271" s="3"/>
-    </row>
-    <row r="272" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS271" s="3"/>
+    </row>
+    <row r="272" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -13377,8 +13660,9 @@
       <c r="AP272" s="3"/>
       <c r="AQ272" s="3"/>
       <c r="AR272" s="3"/>
-    </row>
-    <row r="273" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS272" s="3"/>
+    </row>
+    <row r="273" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -13423,8 +13707,9 @@
       <c r="AP273" s="3"/>
       <c r="AQ273" s="3"/>
       <c r="AR273" s="3"/>
-    </row>
-    <row r="274" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS273" s="3"/>
+    </row>
+    <row r="274" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -13469,8 +13754,9 @@
       <c r="AP274" s="3"/>
       <c r="AQ274" s="3"/>
       <c r="AR274" s="3"/>
-    </row>
-    <row r="275" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS274" s="3"/>
+    </row>
+    <row r="275" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -13515,8 +13801,9 @@
       <c r="AP275" s="3"/>
       <c r="AQ275" s="3"/>
       <c r="AR275" s="3"/>
-    </row>
-    <row r="276" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS275" s="3"/>
+    </row>
+    <row r="276" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -13561,8 +13848,9 @@
       <c r="AP276" s="3"/>
       <c r="AQ276" s="3"/>
       <c r="AR276" s="3"/>
-    </row>
-    <row r="277" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS276" s="3"/>
+    </row>
+    <row r="277" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -13607,8 +13895,9 @@
       <c r="AP277" s="3"/>
       <c r="AQ277" s="3"/>
       <c r="AR277" s="3"/>
-    </row>
-    <row r="278" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS277" s="3"/>
+    </row>
+    <row r="278" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -13653,8 +13942,9 @@
       <c r="AP278" s="3"/>
       <c r="AQ278" s="3"/>
       <c r="AR278" s="3"/>
-    </row>
-    <row r="279" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS278" s="3"/>
+    </row>
+    <row r="279" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -13699,8 +13989,9 @@
       <c r="AP279" s="3"/>
       <c r="AQ279" s="3"/>
       <c r="AR279" s="3"/>
-    </row>
-    <row r="280" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS279" s="3"/>
+    </row>
+    <row r="280" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -13745,8 +14036,9 @@
       <c r="AP280" s="3"/>
       <c r="AQ280" s="3"/>
       <c r="AR280" s="3"/>
-    </row>
-    <row r="281" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS280" s="3"/>
+    </row>
+    <row r="281" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -13791,8 +14083,9 @@
       <c r="AP281" s="3"/>
       <c r="AQ281" s="3"/>
       <c r="AR281" s="3"/>
-    </row>
-    <row r="282" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS281" s="3"/>
+    </row>
+    <row r="282" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -13837,8 +14130,9 @@
       <c r="AP282" s="3"/>
       <c r="AQ282" s="3"/>
       <c r="AR282" s="3"/>
-    </row>
-    <row r="283" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS282" s="3"/>
+    </row>
+    <row r="283" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -13883,8 +14177,9 @@
       <c r="AP283" s="3"/>
       <c r="AQ283" s="3"/>
       <c r="AR283" s="3"/>
-    </row>
-    <row r="284" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS283" s="3"/>
+    </row>
+    <row r="284" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -13929,8 +14224,9 @@
       <c r="AP284" s="3"/>
       <c r="AQ284" s="3"/>
       <c r="AR284" s="3"/>
-    </row>
-    <row r="285" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS284" s="3"/>
+    </row>
+    <row r="285" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -13975,8 +14271,9 @@
       <c r="AP285" s="3"/>
       <c r="AQ285" s="3"/>
       <c r="AR285" s="3"/>
-    </row>
-    <row r="286" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS285" s="3"/>
+    </row>
+    <row r="286" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -14021,8 +14318,9 @@
       <c r="AP286" s="3"/>
       <c r="AQ286" s="3"/>
       <c r="AR286" s="3"/>
-    </row>
-    <row r="287" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS286" s="3"/>
+    </row>
+    <row r="287" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -14067,8 +14365,9 @@
       <c r="AP287" s="3"/>
       <c r="AQ287" s="3"/>
       <c r="AR287" s="3"/>
-    </row>
-    <row r="288" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS287" s="3"/>
+    </row>
+    <row r="288" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -14113,8 +14412,9 @@
       <c r="AP288" s="3"/>
       <c r="AQ288" s="3"/>
       <c r="AR288" s="3"/>
-    </row>
-    <row r="289" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS288" s="3"/>
+    </row>
+    <row r="289" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -14159,8 +14459,9 @@
       <c r="AP289" s="3"/>
       <c r="AQ289" s="3"/>
       <c r="AR289" s="3"/>
-    </row>
-    <row r="290" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS289" s="3"/>
+    </row>
+    <row r="290" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -14205,8 +14506,9 @@
       <c r="AP290" s="3"/>
       <c r="AQ290" s="3"/>
       <c r="AR290" s="3"/>
-    </row>
-    <row r="291" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS290" s="3"/>
+    </row>
+    <row r="291" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -14251,8 +14553,9 @@
       <c r="AP291" s="3"/>
       <c r="AQ291" s="3"/>
       <c r="AR291" s="3"/>
-    </row>
-    <row r="292" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS291" s="3"/>
+    </row>
+    <row r="292" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -14297,8 +14600,9 @@
       <c r="AP292" s="3"/>
       <c r="AQ292" s="3"/>
       <c r="AR292" s="3"/>
-    </row>
-    <row r="293" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS292" s="3"/>
+    </row>
+    <row r="293" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -14343,8 +14647,9 @@
       <c r="AP293" s="3"/>
       <c r="AQ293" s="3"/>
       <c r="AR293" s="3"/>
-    </row>
-    <row r="294" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS293" s="3"/>
+    </row>
+    <row r="294" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -14389,8 +14694,9 @@
       <c r="AP294" s="3"/>
       <c r="AQ294" s="3"/>
       <c r="AR294" s="3"/>
-    </row>
-    <row r="295" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS294" s="3"/>
+    </row>
+    <row r="295" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -14435,8 +14741,9 @@
       <c r="AP295" s="3"/>
       <c r="AQ295" s="3"/>
       <c r="AR295" s="3"/>
-    </row>
-    <row r="296" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS295" s="3"/>
+    </row>
+    <row r="296" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -14481,8 +14788,9 @@
       <c r="AP296" s="3"/>
       <c r="AQ296" s="3"/>
       <c r="AR296" s="3"/>
-    </row>
-    <row r="297" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS296" s="3"/>
+    </row>
+    <row r="297" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -14527,8 +14835,9 @@
       <c r="AP297" s="3"/>
       <c r="AQ297" s="3"/>
       <c r="AR297" s="3"/>
-    </row>
-    <row r="298" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS297" s="3"/>
+    </row>
+    <row r="298" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -14573,8 +14882,9 @@
       <c r="AP298" s="3"/>
       <c r="AQ298" s="3"/>
       <c r="AR298" s="3"/>
-    </row>
-    <row r="299" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS298" s="3"/>
+    </row>
+    <row r="299" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -14619,8 +14929,9 @@
       <c r="AP299" s="3"/>
       <c r="AQ299" s="3"/>
       <c r="AR299" s="3"/>
-    </row>
-    <row r="300" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS299" s="3"/>
+    </row>
+    <row r="300" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -14665,8 +14976,9 @@
       <c r="AP300" s="3"/>
       <c r="AQ300" s="3"/>
       <c r="AR300" s="3"/>
-    </row>
-    <row r="301" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS300" s="3"/>
+    </row>
+    <row r="301" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -14711,8 +15023,9 @@
       <c r="AP301" s="3"/>
       <c r="AQ301" s="3"/>
       <c r="AR301" s="3"/>
-    </row>
-    <row r="302" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS301" s="3"/>
+    </row>
+    <row r="302" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -14757,8 +15070,9 @@
       <c r="AP302" s="3"/>
       <c r="AQ302" s="3"/>
       <c r="AR302" s="3"/>
-    </row>
-    <row r="303" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS302" s="3"/>
+    </row>
+    <row r="303" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -14803,8 +15117,9 @@
       <c r="AP303" s="3"/>
       <c r="AQ303" s="3"/>
       <c r="AR303" s="3"/>
-    </row>
-    <row r="304" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS303" s="3"/>
+    </row>
+    <row r="304" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -14849,8 +15164,9 @@
       <c r="AP304" s="3"/>
       <c r="AQ304" s="3"/>
       <c r="AR304" s="3"/>
-    </row>
-    <row r="305" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS304" s="3"/>
+    </row>
+    <row r="305" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -14895,8 +15211,9 @@
       <c r="AP305" s="3"/>
       <c r="AQ305" s="3"/>
       <c r="AR305" s="3"/>
-    </row>
-    <row r="306" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS305" s="3"/>
+    </row>
+    <row r="306" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -14941,8 +15258,9 @@
       <c r="AP306" s="3"/>
       <c r="AQ306" s="3"/>
       <c r="AR306" s="3"/>
-    </row>
-    <row r="307" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS306" s="3"/>
+    </row>
+    <row r="307" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -14987,8 +15305,9 @@
       <c r="AP307" s="3"/>
       <c r="AQ307" s="3"/>
       <c r="AR307" s="3"/>
-    </row>
-    <row r="308" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS307" s="3"/>
+    </row>
+    <row r="308" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -15033,8 +15352,9 @@
       <c r="AP308" s="3"/>
       <c r="AQ308" s="3"/>
       <c r="AR308" s="3"/>
-    </row>
-    <row r="309" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS308" s="3"/>
+    </row>
+    <row r="309" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -15079,8 +15399,9 @@
       <c r="AP309" s="3"/>
       <c r="AQ309" s="3"/>
       <c r="AR309" s="3"/>
-    </row>
-    <row r="310" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS309" s="3"/>
+    </row>
+    <row r="310" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -15125,8 +15446,9 @@
       <c r="AP310" s="3"/>
       <c r="AQ310" s="3"/>
       <c r="AR310" s="3"/>
-    </row>
-    <row r="311" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS310" s="3"/>
+    </row>
+    <row r="311" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -15171,8 +15493,9 @@
       <c r="AP311" s="3"/>
       <c r="AQ311" s="3"/>
       <c r="AR311" s="3"/>
-    </row>
-    <row r="312" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS311" s="3"/>
+    </row>
+    <row r="312" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -15217,8 +15540,9 @@
       <c r="AP312" s="3"/>
       <c r="AQ312" s="3"/>
       <c r="AR312" s="3"/>
-    </row>
-    <row r="313" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS312" s="3"/>
+    </row>
+    <row r="313" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -15263,8 +15587,9 @@
       <c r="AP313" s="3"/>
       <c r="AQ313" s="3"/>
       <c r="AR313" s="3"/>
-    </row>
-    <row r="314" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS313" s="3"/>
+    </row>
+    <row r="314" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -15309,8 +15634,9 @@
       <c r="AP314" s="3"/>
       <c r="AQ314" s="3"/>
       <c r="AR314" s="3"/>
-    </row>
-    <row r="315" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS314" s="3"/>
+    </row>
+    <row r="315" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -15355,8 +15681,9 @@
       <c r="AP315" s="3"/>
       <c r="AQ315" s="3"/>
       <c r="AR315" s="3"/>
-    </row>
-    <row r="316" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS315" s="3"/>
+    </row>
+    <row r="316" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -15401,8 +15728,9 @@
       <c r="AP316" s="3"/>
       <c r="AQ316" s="3"/>
       <c r="AR316" s="3"/>
-    </row>
-    <row r="317" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS316" s="3"/>
+    </row>
+    <row r="317" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -15447,8 +15775,9 @@
       <c r="AP317" s="3"/>
       <c r="AQ317" s="3"/>
       <c r="AR317" s="3"/>
-    </row>
-    <row r="318" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS317" s="3"/>
+    </row>
+    <row r="318" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -15493,8 +15822,9 @@
       <c r="AP318" s="3"/>
       <c r="AQ318" s="3"/>
       <c r="AR318" s="3"/>
-    </row>
-    <row r="319" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS318" s="3"/>
+    </row>
+    <row r="319" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -15539,8 +15869,9 @@
       <c r="AP319" s="3"/>
       <c r="AQ319" s="3"/>
       <c r="AR319" s="3"/>
-    </row>
-    <row r="320" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS319" s="3"/>
+    </row>
+    <row r="320" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -15585,8 +15916,9 @@
       <c r="AP320" s="3"/>
       <c r="AQ320" s="3"/>
       <c r="AR320" s="3"/>
-    </row>
-    <row r="321" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS320" s="3"/>
+    </row>
+    <row r="321" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -15631,8 +15963,9 @@
       <c r="AP321" s="3"/>
       <c r="AQ321" s="3"/>
       <c r="AR321" s="3"/>
-    </row>
-    <row r="322" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS321" s="3"/>
+    </row>
+    <row r="322" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -15677,8 +16010,9 @@
       <c r="AP322" s="3"/>
       <c r="AQ322" s="3"/>
       <c r="AR322" s="3"/>
-    </row>
-    <row r="323" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS322" s="3"/>
+    </row>
+    <row r="323" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -15723,8 +16057,9 @@
       <c r="AP323" s="3"/>
       <c r="AQ323" s="3"/>
       <c r="AR323" s="3"/>
-    </row>
-    <row r="324" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS323" s="3"/>
+    </row>
+    <row r="324" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -15769,8 +16104,9 @@
       <c r="AP324" s="3"/>
       <c r="AQ324" s="3"/>
       <c r="AR324" s="3"/>
-    </row>
-    <row r="325" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS324" s="3"/>
+    </row>
+    <row r="325" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -15815,8 +16151,9 @@
       <c r="AP325" s="3"/>
       <c r="AQ325" s="3"/>
       <c r="AR325" s="3"/>
-    </row>
-    <row r="326" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS325" s="3"/>
+    </row>
+    <row r="326" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -15861,8 +16198,9 @@
       <c r="AP326" s="3"/>
       <c r="AQ326" s="3"/>
       <c r="AR326" s="3"/>
-    </row>
-    <row r="327" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS326" s="3"/>
+    </row>
+    <row r="327" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -15907,8 +16245,9 @@
       <c r="AP327" s="3"/>
       <c r="AQ327" s="3"/>
       <c r="AR327" s="3"/>
-    </row>
-    <row r="328" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS327" s="3"/>
+    </row>
+    <row r="328" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -15953,8 +16292,9 @@
       <c r="AP328" s="3"/>
       <c r="AQ328" s="3"/>
       <c r="AR328" s="3"/>
-    </row>
-    <row r="329" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS328" s="3"/>
+    </row>
+    <row r="329" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -15999,8 +16339,9 @@
       <c r="AP329" s="3"/>
       <c r="AQ329" s="3"/>
       <c r="AR329" s="3"/>
-    </row>
-    <row r="330" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS329" s="3"/>
+    </row>
+    <row r="330" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -16045,8 +16386,9 @@
       <c r="AP330" s="3"/>
       <c r="AQ330" s="3"/>
       <c r="AR330" s="3"/>
-    </row>
-    <row r="331" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS330" s="3"/>
+    </row>
+    <row r="331" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -16091,8 +16433,9 @@
       <c r="AP331" s="3"/>
       <c r="AQ331" s="3"/>
       <c r="AR331" s="3"/>
-    </row>
-    <row r="332" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS331" s="3"/>
+    </row>
+    <row r="332" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -16137,8 +16480,9 @@
       <c r="AP332" s="3"/>
       <c r="AQ332" s="3"/>
       <c r="AR332" s="3"/>
-    </row>
-    <row r="333" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS332" s="3"/>
+    </row>
+    <row r="333" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -16183,8 +16527,9 @@
       <c r="AP333" s="3"/>
       <c r="AQ333" s="3"/>
       <c r="AR333" s="3"/>
-    </row>
-    <row r="334" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS333" s="3"/>
+    </row>
+    <row r="334" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -16229,8 +16574,9 @@
       <c r="AP334" s="3"/>
       <c r="AQ334" s="3"/>
       <c r="AR334" s="3"/>
-    </row>
-    <row r="335" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS334" s="3"/>
+    </row>
+    <row r="335" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -16275,8 +16621,9 @@
       <c r="AP335" s="3"/>
       <c r="AQ335" s="3"/>
       <c r="AR335" s="3"/>
-    </row>
-    <row r="336" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS335" s="3"/>
+    </row>
+    <row r="336" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -16321,8 +16668,9 @@
       <c r="AP336" s="3"/>
       <c r="AQ336" s="3"/>
       <c r="AR336" s="3"/>
-    </row>
-    <row r="337" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS336" s="3"/>
+    </row>
+    <row r="337" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -16367,8 +16715,9 @@
       <c r="AP337" s="3"/>
       <c r="AQ337" s="3"/>
       <c r="AR337" s="3"/>
-    </row>
-    <row r="338" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS337" s="3"/>
+    </row>
+    <row r="338" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -16413,8 +16762,9 @@
       <c r="AP338" s="3"/>
       <c r="AQ338" s="3"/>
       <c r="AR338" s="3"/>
-    </row>
-    <row r="339" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS338" s="3"/>
+    </row>
+    <row r="339" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -16459,8 +16809,9 @@
       <c r="AP339" s="3"/>
       <c r="AQ339" s="3"/>
       <c r="AR339" s="3"/>
-    </row>
-    <row r="340" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS339" s="3"/>
+    </row>
+    <row r="340" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -16505,8 +16856,9 @@
       <c r="AP340" s="3"/>
       <c r="AQ340" s="3"/>
       <c r="AR340" s="3"/>
-    </row>
-    <row r="341" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS340" s="3"/>
+    </row>
+    <row r="341" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -16551,8 +16903,9 @@
       <c r="AP341" s="3"/>
       <c r="AQ341" s="3"/>
       <c r="AR341" s="3"/>
-    </row>
-    <row r="342" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS341" s="3"/>
+    </row>
+    <row r="342" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -16597,8 +16950,9 @@
       <c r="AP342" s="3"/>
       <c r="AQ342" s="3"/>
       <c r="AR342" s="3"/>
-    </row>
-    <row r="343" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS342" s="3"/>
+    </row>
+    <row r="343" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -16643,8 +16997,9 @@
       <c r="AP343" s="3"/>
       <c r="AQ343" s="3"/>
       <c r="AR343" s="3"/>
-    </row>
-    <row r="344" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS343" s="3"/>
+    </row>
+    <row r="344" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -16689,8 +17044,9 @@
       <c r="AP344" s="3"/>
       <c r="AQ344" s="3"/>
       <c r="AR344" s="3"/>
-    </row>
-    <row r="345" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS344" s="3"/>
+    </row>
+    <row r="345" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -16735,8 +17091,9 @@
       <c r="AP345" s="3"/>
       <c r="AQ345" s="3"/>
       <c r="AR345" s="3"/>
-    </row>
-    <row r="346" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS345" s="3"/>
+    </row>
+    <row r="346" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -16781,8 +17138,9 @@
       <c r="AP346" s="3"/>
       <c r="AQ346" s="3"/>
       <c r="AR346" s="3"/>
-    </row>
-    <row r="347" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS346" s="3"/>
+    </row>
+    <row r="347" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -16827,8 +17185,9 @@
       <c r="AP347" s="3"/>
       <c r="AQ347" s="3"/>
       <c r="AR347" s="3"/>
-    </row>
-    <row r="348" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS347" s="3"/>
+    </row>
+    <row r="348" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -16873,8 +17232,9 @@
       <c r="AP348" s="3"/>
       <c r="AQ348" s="3"/>
       <c r="AR348" s="3"/>
-    </row>
-    <row r="349" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS348" s="3"/>
+    </row>
+    <row r="349" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -16919,8 +17279,9 @@
       <c r="AP349" s="3"/>
       <c r="AQ349" s="3"/>
       <c r="AR349" s="3"/>
-    </row>
-    <row r="350" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS349" s="3"/>
+    </row>
+    <row r="350" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -16965,8 +17326,9 @@
       <c r="AP350" s="3"/>
       <c r="AQ350" s="3"/>
       <c r="AR350" s="3"/>
-    </row>
-    <row r="351" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS350" s="3"/>
+    </row>
+    <row r="351" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -17011,8 +17373,9 @@
       <c r="AP351" s="3"/>
       <c r="AQ351" s="3"/>
       <c r="AR351" s="3"/>
-    </row>
-    <row r="352" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS351" s="3"/>
+    </row>
+    <row r="352" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -17057,8 +17420,9 @@
       <c r="AP352" s="3"/>
       <c r="AQ352" s="3"/>
       <c r="AR352" s="3"/>
-    </row>
-    <row r="353" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS352" s="3"/>
+    </row>
+    <row r="353" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -17103,8 +17467,9 @@
       <c r="AP353" s="3"/>
       <c r="AQ353" s="3"/>
       <c r="AR353" s="3"/>
-    </row>
-    <row r="354" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS353" s="3"/>
+    </row>
+    <row r="354" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -17149,8 +17514,9 @@
       <c r="AP354" s="3"/>
       <c r="AQ354" s="3"/>
       <c r="AR354" s="3"/>
-    </row>
-    <row r="355" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS354" s="3"/>
+    </row>
+    <row r="355" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -17195,8 +17561,9 @@
       <c r="AP355" s="3"/>
       <c r="AQ355" s="3"/>
       <c r="AR355" s="3"/>
-    </row>
-    <row r="356" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS355" s="3"/>
+    </row>
+    <row r="356" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -17241,8 +17608,9 @@
       <c r="AP356" s="3"/>
       <c r="AQ356" s="3"/>
       <c r="AR356" s="3"/>
-    </row>
-    <row r="357" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS356" s="3"/>
+    </row>
+    <row r="357" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -17287,8 +17655,9 @@
       <c r="AP357" s="3"/>
       <c r="AQ357" s="3"/>
       <c r="AR357" s="3"/>
-    </row>
-    <row r="358" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS357" s="3"/>
+    </row>
+    <row r="358" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -17333,8 +17702,9 @@
       <c r="AP358" s="3"/>
       <c r="AQ358" s="3"/>
       <c r="AR358" s="3"/>
-    </row>
-    <row r="359" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS358" s="3"/>
+    </row>
+    <row r="359" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -17379,8 +17749,9 @@
       <c r="AP359" s="3"/>
       <c r="AQ359" s="3"/>
       <c r="AR359" s="3"/>
-    </row>
-    <row r="360" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS359" s="3"/>
+    </row>
+    <row r="360" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -17425,8 +17796,9 @@
       <c r="AP360" s="3"/>
       <c r="AQ360" s="3"/>
       <c r="AR360" s="3"/>
-    </row>
-    <row r="361" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS360" s="3"/>
+    </row>
+    <row r="361" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -17471,8 +17843,9 @@
       <c r="AP361" s="3"/>
       <c r="AQ361" s="3"/>
       <c r="AR361" s="3"/>
-    </row>
-    <row r="362" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS361" s="3"/>
+    </row>
+    <row r="362" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -17517,8 +17890,9 @@
       <c r="AP362" s="3"/>
       <c r="AQ362" s="3"/>
       <c r="AR362" s="3"/>
-    </row>
-    <row r="363" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS362" s="3"/>
+    </row>
+    <row r="363" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -17563,8 +17937,9 @@
       <c r="AP363" s="3"/>
       <c r="AQ363" s="3"/>
       <c r="AR363" s="3"/>
-    </row>
-    <row r="364" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS363" s="3"/>
+    </row>
+    <row r="364" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -17609,8 +17984,9 @@
       <c r="AP364" s="3"/>
       <c r="AQ364" s="3"/>
       <c r="AR364" s="3"/>
-    </row>
-    <row r="365" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS364" s="3"/>
+    </row>
+    <row r="365" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -17655,8 +18031,9 @@
       <c r="AP365" s="3"/>
       <c r="AQ365" s="3"/>
       <c r="AR365" s="3"/>
-    </row>
-    <row r="366" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS365" s="3"/>
+    </row>
+    <row r="366" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -17701,8 +18078,9 @@
       <c r="AP366" s="3"/>
       <c r="AQ366" s="3"/>
       <c r="AR366" s="3"/>
-    </row>
-    <row r="367" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS366" s="3"/>
+    </row>
+    <row r="367" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -17747,8 +18125,9 @@
       <c r="AP367" s="3"/>
       <c r="AQ367" s="3"/>
       <c r="AR367" s="3"/>
-    </row>
-    <row r="368" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS367" s="3"/>
+    </row>
+    <row r="368" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -17793,8 +18172,9 @@
       <c r="AP368" s="3"/>
       <c r="AQ368" s="3"/>
       <c r="AR368" s="3"/>
-    </row>
-    <row r="369" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS368" s="3"/>
+    </row>
+    <row r="369" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -17839,8 +18219,9 @@
       <c r="AP369" s="3"/>
       <c r="AQ369" s="3"/>
       <c r="AR369" s="3"/>
-    </row>
-    <row r="370" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS369" s="3"/>
+    </row>
+    <row r="370" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -17885,8 +18266,9 @@
       <c r="AP370" s="3"/>
       <c r="AQ370" s="3"/>
       <c r="AR370" s="3"/>
-    </row>
-    <row r="371" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS370" s="3"/>
+    </row>
+    <row r="371" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -17931,8 +18313,9 @@
       <c r="AP371" s="3"/>
       <c r="AQ371" s="3"/>
       <c r="AR371" s="3"/>
-    </row>
-    <row r="372" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS371" s="3"/>
+    </row>
+    <row r="372" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -17977,8 +18360,9 @@
       <c r="AP372" s="3"/>
       <c r="AQ372" s="3"/>
       <c r="AR372" s="3"/>
-    </row>
-    <row r="373" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS372" s="3"/>
+    </row>
+    <row r="373" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -18023,8 +18407,9 @@
       <c r="AP373" s="3"/>
       <c r="AQ373" s="3"/>
       <c r="AR373" s="3"/>
-    </row>
-    <row r="374" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS373" s="3"/>
+    </row>
+    <row r="374" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -18069,8 +18454,9 @@
       <c r="AP374" s="3"/>
       <c r="AQ374" s="3"/>
       <c r="AR374" s="3"/>
-    </row>
-    <row r="375" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS374" s="3"/>
+    </row>
+    <row r="375" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -18115,8 +18501,9 @@
       <c r="AP375" s="3"/>
       <c r="AQ375" s="3"/>
       <c r="AR375" s="3"/>
-    </row>
-    <row r="376" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS375" s="3"/>
+    </row>
+    <row r="376" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -18161,8 +18548,9 @@
       <c r="AP376" s="3"/>
       <c r="AQ376" s="3"/>
       <c r="AR376" s="3"/>
-    </row>
-    <row r="377" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS376" s="3"/>
+    </row>
+    <row r="377" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -18207,8 +18595,9 @@
       <c r="AP377" s="3"/>
       <c r="AQ377" s="3"/>
       <c r="AR377" s="3"/>
-    </row>
-    <row r="378" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS377" s="3"/>
+    </row>
+    <row r="378" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -18253,8 +18642,9 @@
       <c r="AP378" s="3"/>
       <c r="AQ378" s="3"/>
       <c r="AR378" s="3"/>
-    </row>
-    <row r="379" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS378" s="3"/>
+    </row>
+    <row r="379" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -18299,8 +18689,9 @@
       <c r="AP379" s="3"/>
       <c r="AQ379" s="3"/>
       <c r="AR379" s="3"/>
-    </row>
-    <row r="380" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS379" s="3"/>
+    </row>
+    <row r="380" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -18345,8 +18736,9 @@
       <c r="AP380" s="3"/>
       <c r="AQ380" s="3"/>
       <c r="AR380" s="3"/>
-    </row>
-    <row r="381" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS380" s="3"/>
+    </row>
+    <row r="381" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -18391,8 +18783,9 @@
       <c r="AP381" s="3"/>
       <c r="AQ381" s="3"/>
       <c r="AR381" s="3"/>
-    </row>
-    <row r="382" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS381" s="3"/>
+    </row>
+    <row r="382" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -18437,8 +18830,9 @@
       <c r="AP382" s="3"/>
       <c r="AQ382" s="3"/>
       <c r="AR382" s="3"/>
-    </row>
-    <row r="383" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS382" s="3"/>
+    </row>
+    <row r="383" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -18483,8 +18877,9 @@
       <c r="AP383" s="3"/>
       <c r="AQ383" s="3"/>
       <c r="AR383" s="3"/>
-    </row>
-    <row r="384" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS383" s="3"/>
+    </row>
+    <row r="384" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -18529,8 +18924,9 @@
       <c r="AP384" s="3"/>
       <c r="AQ384" s="3"/>
       <c r="AR384" s="3"/>
-    </row>
-    <row r="385" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS384" s="3"/>
+    </row>
+    <row r="385" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -18575,8 +18971,9 @@
       <c r="AP385" s="3"/>
       <c r="AQ385" s="3"/>
       <c r="AR385" s="3"/>
-    </row>
-    <row r="386" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS385" s="3"/>
+    </row>
+    <row r="386" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -18621,8 +19018,9 @@
       <c r="AP386" s="3"/>
       <c r="AQ386" s="3"/>
       <c r="AR386" s="3"/>
-    </row>
-    <row r="387" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS386" s="3"/>
+    </row>
+    <row r="387" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -18667,6 +19065,7 @@
       <c r="AP387" s="3"/>
       <c r="AQ387" s="3"/>
       <c r="AR387" s="3"/>
+      <c r="AS387" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19985,7 +20384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/input/CvT_data_template_articles.xlsx
+++ b/input/CvT_data_template_articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/wall_taylor_epa_gov/Documents/Profile/Desktop/cvtdbLoad/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{CFF19FB8-F332-41A8-9926-AD247F946B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="6_{CFF19FB8-F332-41A8-9926-AD247F946B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B58B7E8C-2509-401D-BEB3-30F465C0EBCD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -266,12 +266,36 @@
   <si>
     <t>conc_bound_type</t>
   </si>
+  <si>
+    <t>tk_params</t>
+  </si>
+  <si>
+    <t>effects_data</t>
+  </si>
+  <si>
+    <t>httk_data</t>
+  </si>
+  <si>
+    <t>clowder_id</t>
+  </si>
+  <si>
+    <t>administration_method</t>
+  </si>
+  <si>
+    <t>administration_form</t>
+  </si>
+  <si>
+    <t>skin_laceration</t>
+  </si>
+  <si>
+    <t>health_status</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,12 +317,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -332,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -352,16 +370,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,6 +390,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,27 +657,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E831F9-6B15-4914-9CE1-426B4CF01319}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -677,26 +699,35 @@
         <v>71</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="C2" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -706,33 +737,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCE4BB7-D604-4848-8F98-B3DF84410C96}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="28.109375" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -758,60 +801,69 @@
         <v>37</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -822,27 +874,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AR387"/>
+  <dimension ref="A1:AS386"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -876,55 +931,58 @@
       <c r="K1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -957,8 +1015,9 @@
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS2" s="3"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -970,7 +1029,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1003,8 +1062,9 @@
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS3" s="3"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1016,7 +1076,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1049,8 +1109,9 @@
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS4" s="3"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1062,7 +1123,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1095,8 +1156,9 @@
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS5" s="3"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1108,7 +1170,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1141,8 +1203,9 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS6" s="3"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1154,7 +1217,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1187,8 +1250,9 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS7" s="3"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1200,7 +1264,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1233,8 +1297,9 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS8" s="3"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1246,7 +1311,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1279,8 +1344,9 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS9" s="3"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1292,7 +1358,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1325,8 +1391,9 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS10" s="3"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1338,7 +1405,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1371,8 +1438,9 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS11" s="3"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1384,7 +1452,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1417,8 +1485,9 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS12" s="3"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1430,7 +1499,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1463,8 +1532,9 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS13" s="3"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1476,7 +1546,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1509,8 +1579,9 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS14" s="3"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1522,7 +1593,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1555,8 +1626,9 @@
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS15" s="3"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1568,7 +1640,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1601,8 +1673,9 @@
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS16" s="3"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1614,7 +1687,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1647,8 +1720,9 @@
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS17" s="3"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1660,7 +1734,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1693,8 +1767,9 @@
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS18" s="3"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1706,7 +1781,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1739,8 +1814,9 @@
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS19" s="3"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1752,7 +1828,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1785,8 +1861,9 @@
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS20" s="3"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1798,7 +1875,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1831,8 +1908,9 @@
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS21" s="3"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1844,7 +1922,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -1877,8 +1955,9 @@
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS22" s="3"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1890,7 +1969,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1923,8 +2002,9 @@
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS23" s="3"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1936,7 +2016,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1969,8 +2049,9 @@
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS24" s="3"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1982,7 +2063,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2015,8 +2096,9 @@
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS25" s="3"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2028,7 +2110,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2061,8 +2143,9 @@
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS26" s="3"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2074,7 +2157,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2107,8 +2190,9 @@
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS27" s="3"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2120,7 +2204,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2153,8 +2237,9 @@
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS28" s="3"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2166,7 +2251,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2199,8 +2284,9 @@
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS29" s="3"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2212,7 +2298,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -2245,8 +2331,9 @@
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS30" s="3"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2258,7 +2345,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -2291,8 +2378,9 @@
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS31" s="3"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2304,7 +2392,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -2337,8 +2425,9 @@
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS32" s="3"/>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2350,7 +2439,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2383,8 +2472,9 @@
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS33" s="3"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2396,7 +2486,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -2429,8 +2519,9 @@
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS34" s="3"/>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2442,7 +2533,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -2475,8 +2566,9 @@
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS35" s="3"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2488,7 +2580,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -2521,8 +2613,9 @@
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS36" s="3"/>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2534,7 +2627,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -2567,8 +2660,9 @@
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS37" s="3"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2580,7 +2674,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="4"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -2613,8 +2707,9 @@
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS38" s="3"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2626,7 +2721,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="3"/>
+      <c r="L39" s="4"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -2659,8 +2754,9 @@
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS39" s="3"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2672,7 +2768,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="3"/>
+      <c r="L40" s="4"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -2705,8 +2801,9 @@
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
       <c r="AR40" s="3"/>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS40" s="3"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2718,7 +2815,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="4"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -2751,8 +2848,9 @@
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS41" s="3"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2764,7 +2862,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="4"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -2797,8 +2895,9 @@
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS42" s="3"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2810,7 +2909,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="4"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -2843,8 +2942,9 @@
       <c r="AP43" s="3"/>
       <c r="AQ43" s="3"/>
       <c r="AR43" s="3"/>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS43" s="3"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2856,7 +2956,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -2889,8 +2989,9 @@
       <c r="AP44" s="3"/>
       <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS44" s="3"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2902,7 +3003,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="4"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -2935,8 +3036,9 @@
       <c r="AP45" s="3"/>
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS45" s="3"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2948,7 +3050,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="4"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -2981,8 +3083,9 @@
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
       <c r="AR46" s="3"/>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS46" s="3"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2994,7 +3097,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="3"/>
+      <c r="L47" s="4"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -3027,8 +3130,9 @@
       <c r="AP47" s="3"/>
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS47" s="3"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3040,7 +3144,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -3073,8 +3177,9 @@
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3"/>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS48" s="3"/>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3086,7 +3191,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -3119,8 +3224,9 @@
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS49" s="3"/>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3132,7 +3238,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="3"/>
+      <c r="L50" s="4"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -3165,19 +3271,20 @@
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="AS50" s="3"/>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -3211,8 +3318,9 @@
       <c r="AP51" s="3"/>
       <c r="AQ51" s="3"/>
       <c r="AR51" s="3"/>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS51" s="3"/>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3257,8 +3365,9 @@
       <c r="AP52" s="3"/>
       <c r="AQ52" s="3"/>
       <c r="AR52" s="3"/>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS52" s="3"/>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3303,8 +3412,9 @@
       <c r="AP53" s="3"/>
       <c r="AQ53" s="3"/>
       <c r="AR53" s="3"/>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS53" s="3"/>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3349,8 +3459,9 @@
       <c r="AP54" s="3"/>
       <c r="AQ54" s="3"/>
       <c r="AR54" s="3"/>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS54" s="3"/>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3395,8 +3506,9 @@
       <c r="AP55" s="3"/>
       <c r="AQ55" s="3"/>
       <c r="AR55" s="3"/>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS55" s="3"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3441,8 +3553,9 @@
       <c r="AP56" s="3"/>
       <c r="AQ56" s="3"/>
       <c r="AR56" s="3"/>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS56" s="3"/>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3487,8 +3600,9 @@
       <c r="AP57" s="3"/>
       <c r="AQ57" s="3"/>
       <c r="AR57" s="3"/>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS57" s="3"/>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3533,8 +3647,9 @@
       <c r="AP58" s="3"/>
       <c r="AQ58" s="3"/>
       <c r="AR58" s="3"/>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS58" s="3"/>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3579,8 +3694,9 @@
       <c r="AP59" s="3"/>
       <c r="AQ59" s="3"/>
       <c r="AR59" s="3"/>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS59" s="3"/>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3625,8 +3741,9 @@
       <c r="AP60" s="3"/>
       <c r="AQ60" s="3"/>
       <c r="AR60" s="3"/>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS60" s="3"/>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3671,8 +3788,9 @@
       <c r="AP61" s="3"/>
       <c r="AQ61" s="3"/>
       <c r="AR61" s="3"/>
-    </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS61" s="3"/>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3717,8 +3835,9 @@
       <c r="AP62" s="3"/>
       <c r="AQ62" s="3"/>
       <c r="AR62" s="3"/>
-    </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS62" s="3"/>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3763,8 +3882,9 @@
       <c r="AP63" s="3"/>
       <c r="AQ63" s="3"/>
       <c r="AR63" s="3"/>
-    </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS63" s="3"/>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3809,8 +3929,9 @@
       <c r="AP64" s="3"/>
       <c r="AQ64" s="3"/>
       <c r="AR64" s="3"/>
-    </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS64" s="3"/>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3855,8 +3976,9 @@
       <c r="AP65" s="3"/>
       <c r="AQ65" s="3"/>
       <c r="AR65" s="3"/>
-    </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS65" s="3"/>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3901,8 +4023,9 @@
       <c r="AP66" s="3"/>
       <c r="AQ66" s="3"/>
       <c r="AR66" s="3"/>
-    </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS66" s="3"/>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3947,8 +4070,9 @@
       <c r="AP67" s="3"/>
       <c r="AQ67" s="3"/>
       <c r="AR67" s="3"/>
-    </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS67" s="3"/>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3993,8 +4117,9 @@
       <c r="AP68" s="3"/>
       <c r="AQ68" s="3"/>
       <c r="AR68" s="3"/>
-    </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS68" s="3"/>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4039,8 +4164,9 @@
       <c r="AP69" s="3"/>
       <c r="AQ69" s="3"/>
       <c r="AR69" s="3"/>
-    </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS69" s="3"/>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4085,8 +4211,9 @@
       <c r="AP70" s="3"/>
       <c r="AQ70" s="3"/>
       <c r="AR70" s="3"/>
-    </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS70" s="3"/>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4131,8 +4258,9 @@
       <c r="AP71" s="3"/>
       <c r="AQ71" s="3"/>
       <c r="AR71" s="3"/>
-    </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS71" s="3"/>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4177,8 +4305,9 @@
       <c r="AP72" s="3"/>
       <c r="AQ72" s="3"/>
       <c r="AR72" s="3"/>
-    </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS72" s="3"/>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4223,8 +4352,9 @@
       <c r="AP73" s="3"/>
       <c r="AQ73" s="3"/>
       <c r="AR73" s="3"/>
-    </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS73" s="3"/>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4269,8 +4399,9 @@
       <c r="AP74" s="3"/>
       <c r="AQ74" s="3"/>
       <c r="AR74" s="3"/>
-    </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS74" s="3"/>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4315,8 +4446,9 @@
       <c r="AP75" s="3"/>
       <c r="AQ75" s="3"/>
       <c r="AR75" s="3"/>
-    </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS75" s="3"/>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4361,8 +4493,9 @@
       <c r="AP76" s="3"/>
       <c r="AQ76" s="3"/>
       <c r="AR76" s="3"/>
-    </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS76" s="3"/>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4407,8 +4540,9 @@
       <c r="AP77" s="3"/>
       <c r="AQ77" s="3"/>
       <c r="AR77" s="3"/>
-    </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS77" s="3"/>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4453,8 +4587,9 @@
       <c r="AP78" s="3"/>
       <c r="AQ78" s="3"/>
       <c r="AR78" s="3"/>
-    </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS78" s="3"/>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4499,8 +4634,9 @@
       <c r="AP79" s="3"/>
       <c r="AQ79" s="3"/>
       <c r="AR79" s="3"/>
-    </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS79" s="3"/>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4545,8 +4681,9 @@
       <c r="AP80" s="3"/>
       <c r="AQ80" s="3"/>
       <c r="AR80" s="3"/>
-    </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS80" s="3"/>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4591,8 +4728,9 @@
       <c r="AP81" s="3"/>
       <c r="AQ81" s="3"/>
       <c r="AR81" s="3"/>
-    </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS81" s="3"/>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4637,8 +4775,9 @@
       <c r="AP82" s="3"/>
       <c r="AQ82" s="3"/>
       <c r="AR82" s="3"/>
-    </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS82" s="3"/>
+    </row>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4683,8 +4822,9 @@
       <c r="AP83" s="3"/>
       <c r="AQ83" s="3"/>
       <c r="AR83" s="3"/>
-    </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS83" s="3"/>
+    </row>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4729,8 +4869,9 @@
       <c r="AP84" s="3"/>
       <c r="AQ84" s="3"/>
       <c r="AR84" s="3"/>
-    </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS84" s="3"/>
+    </row>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4775,8 +4916,9 @@
       <c r="AP85" s="3"/>
       <c r="AQ85" s="3"/>
       <c r="AR85" s="3"/>
-    </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS85" s="3"/>
+    </row>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4821,8 +4963,9 @@
       <c r="AP86" s="3"/>
       <c r="AQ86" s="3"/>
       <c r="AR86" s="3"/>
-    </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS86" s="3"/>
+    </row>
+    <row r="87" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4867,8 +5010,9 @@
       <c r="AP87" s="3"/>
       <c r="AQ87" s="3"/>
       <c r="AR87" s="3"/>
-    </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS87" s="3"/>
+    </row>
+    <row r="88" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4913,8 +5057,9 @@
       <c r="AP88" s="3"/>
       <c r="AQ88" s="3"/>
       <c r="AR88" s="3"/>
-    </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS88" s="3"/>
+    </row>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4959,8 +5104,9 @@
       <c r="AP89" s="3"/>
       <c r="AQ89" s="3"/>
       <c r="AR89" s="3"/>
-    </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS89" s="3"/>
+    </row>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5005,8 +5151,9 @@
       <c r="AP90" s="3"/>
       <c r="AQ90" s="3"/>
       <c r="AR90" s="3"/>
-    </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS90" s="3"/>
+    </row>
+    <row r="91" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5051,8 +5198,9 @@
       <c r="AP91" s="3"/>
       <c r="AQ91" s="3"/>
       <c r="AR91" s="3"/>
-    </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS91" s="3"/>
+    </row>
+    <row r="92" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5097,8 +5245,9 @@
       <c r="AP92" s="3"/>
       <c r="AQ92" s="3"/>
       <c r="AR92" s="3"/>
-    </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS92" s="3"/>
+    </row>
+    <row r="93" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5143,8 +5292,9 @@
       <c r="AP93" s="3"/>
       <c r="AQ93" s="3"/>
       <c r="AR93" s="3"/>
-    </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS93" s="3"/>
+    </row>
+    <row r="94" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5189,8 +5339,9 @@
       <c r="AP94" s="3"/>
       <c r="AQ94" s="3"/>
       <c r="AR94" s="3"/>
-    </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS94" s="3"/>
+    </row>
+    <row r="95" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5235,8 +5386,9 @@
       <c r="AP95" s="3"/>
       <c r="AQ95" s="3"/>
       <c r="AR95" s="3"/>
-    </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS95" s="3"/>
+    </row>
+    <row r="96" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5281,8 +5433,9 @@
       <c r="AP96" s="3"/>
       <c r="AQ96" s="3"/>
       <c r="AR96" s="3"/>
-    </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS96" s="3"/>
+    </row>
+    <row r="97" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5327,8 +5480,9 @@
       <c r="AP97" s="3"/>
       <c r="AQ97" s="3"/>
       <c r="AR97" s="3"/>
-    </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS97" s="3"/>
+    </row>
+    <row r="98" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5373,8 +5527,9 @@
       <c r="AP98" s="3"/>
       <c r="AQ98" s="3"/>
       <c r="AR98" s="3"/>
-    </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS98" s="3"/>
+    </row>
+    <row r="99" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5419,8 +5574,9 @@
       <c r="AP99" s="3"/>
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
-    </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS99" s="3"/>
+    </row>
+    <row r="100" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5465,8 +5621,9 @@
       <c r="AP100" s="3"/>
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
-    </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS100" s="3"/>
+    </row>
+    <row r="101" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5511,8 +5668,9 @@
       <c r="AP101" s="3"/>
       <c r="AQ101" s="3"/>
       <c r="AR101" s="3"/>
-    </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS101" s="3"/>
+    </row>
+    <row r="102" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5557,8 +5715,9 @@
       <c r="AP102" s="3"/>
       <c r="AQ102" s="3"/>
       <c r="AR102" s="3"/>
-    </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS102" s="3"/>
+    </row>
+    <row r="103" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5603,8 +5762,9 @@
       <c r="AP103" s="3"/>
       <c r="AQ103" s="3"/>
       <c r="AR103" s="3"/>
-    </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS103" s="3"/>
+    </row>
+    <row r="104" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5649,8 +5809,9 @@
       <c r="AP104" s="3"/>
       <c r="AQ104" s="3"/>
       <c r="AR104" s="3"/>
-    </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS104" s="3"/>
+    </row>
+    <row r="105" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5695,8 +5856,9 @@
       <c r="AP105" s="3"/>
       <c r="AQ105" s="3"/>
       <c r="AR105" s="3"/>
-    </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS105" s="3"/>
+    </row>
+    <row r="106" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5741,8 +5903,9 @@
       <c r="AP106" s="3"/>
       <c r="AQ106" s="3"/>
       <c r="AR106" s="3"/>
-    </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS106" s="3"/>
+    </row>
+    <row r="107" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5787,8 +5950,9 @@
       <c r="AP107" s="3"/>
       <c r="AQ107" s="3"/>
       <c r="AR107" s="3"/>
-    </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS107" s="3"/>
+    </row>
+    <row r="108" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5833,8 +5997,9 @@
       <c r="AP108" s="3"/>
       <c r="AQ108" s="3"/>
       <c r="AR108" s="3"/>
-    </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS108" s="3"/>
+    </row>
+    <row r="109" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5879,8 +6044,9 @@
       <c r="AP109" s="3"/>
       <c r="AQ109" s="3"/>
       <c r="AR109" s="3"/>
-    </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS109" s="3"/>
+    </row>
+    <row r="110" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5925,8 +6091,9 @@
       <c r="AP110" s="3"/>
       <c r="AQ110" s="3"/>
       <c r="AR110" s="3"/>
-    </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS110" s="3"/>
+    </row>
+    <row r="111" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5971,8 +6138,9 @@
       <c r="AP111" s="3"/>
       <c r="AQ111" s="3"/>
       <c r="AR111" s="3"/>
-    </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS111" s="3"/>
+    </row>
+    <row r="112" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6017,8 +6185,9 @@
       <c r="AP112" s="3"/>
       <c r="AQ112" s="3"/>
       <c r="AR112" s="3"/>
-    </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS112" s="3"/>
+    </row>
+    <row r="113" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6063,8 +6232,9 @@
       <c r="AP113" s="3"/>
       <c r="AQ113" s="3"/>
       <c r="AR113" s="3"/>
-    </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS113" s="3"/>
+    </row>
+    <row r="114" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6109,8 +6279,9 @@
       <c r="AP114" s="3"/>
       <c r="AQ114" s="3"/>
       <c r="AR114" s="3"/>
-    </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS114" s="3"/>
+    </row>
+    <row r="115" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6155,8 +6326,9 @@
       <c r="AP115" s="3"/>
       <c r="AQ115" s="3"/>
       <c r="AR115" s="3"/>
-    </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS115" s="3"/>
+    </row>
+    <row r="116" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6201,8 +6373,9 @@
       <c r="AP116" s="3"/>
       <c r="AQ116" s="3"/>
       <c r="AR116" s="3"/>
-    </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS116" s="3"/>
+    </row>
+    <row r="117" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6247,8 +6420,9 @@
       <c r="AP117" s="3"/>
       <c r="AQ117" s="3"/>
       <c r="AR117" s="3"/>
-    </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS117" s="3"/>
+    </row>
+    <row r="118" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6293,8 +6467,9 @@
       <c r="AP118" s="3"/>
       <c r="AQ118" s="3"/>
       <c r="AR118" s="3"/>
-    </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS118" s="3"/>
+    </row>
+    <row r="119" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6339,8 +6514,9 @@
       <c r="AP119" s="3"/>
       <c r="AQ119" s="3"/>
       <c r="AR119" s="3"/>
-    </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS119" s="3"/>
+    </row>
+    <row r="120" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6385,8 +6561,9 @@
       <c r="AP120" s="3"/>
       <c r="AQ120" s="3"/>
       <c r="AR120" s="3"/>
-    </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS120" s="3"/>
+    </row>
+    <row r="121" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6431,8 +6608,9 @@
       <c r="AP121" s="3"/>
       <c r="AQ121" s="3"/>
       <c r="AR121" s="3"/>
-    </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS121" s="3"/>
+    </row>
+    <row r="122" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6477,8 +6655,9 @@
       <c r="AP122" s="3"/>
       <c r="AQ122" s="3"/>
       <c r="AR122" s="3"/>
-    </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS122" s="3"/>
+    </row>
+    <row r="123" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6523,8 +6702,9 @@
       <c r="AP123" s="3"/>
       <c r="AQ123" s="3"/>
       <c r="AR123" s="3"/>
-    </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS123" s="3"/>
+    </row>
+    <row r="124" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6569,8 +6749,9 @@
       <c r="AP124" s="3"/>
       <c r="AQ124" s="3"/>
       <c r="AR124" s="3"/>
-    </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS124" s="3"/>
+    </row>
+    <row r="125" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6615,8 +6796,9 @@
       <c r="AP125" s="3"/>
       <c r="AQ125" s="3"/>
       <c r="AR125" s="3"/>
-    </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS125" s="3"/>
+    </row>
+    <row r="126" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6661,8 +6843,9 @@
       <c r="AP126" s="3"/>
       <c r="AQ126" s="3"/>
       <c r="AR126" s="3"/>
-    </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS126" s="3"/>
+    </row>
+    <row r="127" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6707,8 +6890,9 @@
       <c r="AP127" s="3"/>
       <c r="AQ127" s="3"/>
       <c r="AR127" s="3"/>
-    </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS127" s="3"/>
+    </row>
+    <row r="128" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6753,8 +6937,9 @@
       <c r="AP128" s="3"/>
       <c r="AQ128" s="3"/>
       <c r="AR128" s="3"/>
-    </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS128" s="3"/>
+    </row>
+    <row r="129" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6799,8 +6984,9 @@
       <c r="AP129" s="3"/>
       <c r="AQ129" s="3"/>
       <c r="AR129" s="3"/>
-    </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS129" s="3"/>
+    </row>
+    <row r="130" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6845,8 +7031,9 @@
       <c r="AP130" s="3"/>
       <c r="AQ130" s="3"/>
       <c r="AR130" s="3"/>
-    </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS130" s="3"/>
+    </row>
+    <row r="131" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6891,8 +7078,9 @@
       <c r="AP131" s="3"/>
       <c r="AQ131" s="3"/>
       <c r="AR131" s="3"/>
-    </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS131" s="3"/>
+    </row>
+    <row r="132" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6937,8 +7125,9 @@
       <c r="AP132" s="3"/>
       <c r="AQ132" s="3"/>
       <c r="AR132" s="3"/>
-    </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS132" s="3"/>
+    </row>
+    <row r="133" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6983,8 +7172,9 @@
       <c r="AP133" s="3"/>
       <c r="AQ133" s="3"/>
       <c r="AR133" s="3"/>
-    </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS133" s="3"/>
+    </row>
+    <row r="134" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7029,8 +7219,9 @@
       <c r="AP134" s="3"/>
       <c r="AQ134" s="3"/>
       <c r="AR134" s="3"/>
-    </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS134" s="3"/>
+    </row>
+    <row r="135" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -7075,8 +7266,9 @@
       <c r="AP135" s="3"/>
       <c r="AQ135" s="3"/>
       <c r="AR135" s="3"/>
-    </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS135" s="3"/>
+    </row>
+    <row r="136" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -7121,8 +7313,9 @@
       <c r="AP136" s="3"/>
       <c r="AQ136" s="3"/>
       <c r="AR136" s="3"/>
-    </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS136" s="3"/>
+    </row>
+    <row r="137" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -7167,8 +7360,9 @@
       <c r="AP137" s="3"/>
       <c r="AQ137" s="3"/>
       <c r="AR137" s="3"/>
-    </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS137" s="3"/>
+    </row>
+    <row r="138" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -7213,8 +7407,9 @@
       <c r="AP138" s="3"/>
       <c r="AQ138" s="3"/>
       <c r="AR138" s="3"/>
-    </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS138" s="3"/>
+    </row>
+    <row r="139" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -7259,8 +7454,9 @@
       <c r="AP139" s="3"/>
       <c r="AQ139" s="3"/>
       <c r="AR139" s="3"/>
-    </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS139" s="3"/>
+    </row>
+    <row r="140" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -7305,8 +7501,9 @@
       <c r="AP140" s="3"/>
       <c r="AQ140" s="3"/>
       <c r="AR140" s="3"/>
-    </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS140" s="3"/>
+    </row>
+    <row r="141" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -7351,8 +7548,9 @@
       <c r="AP141" s="3"/>
       <c r="AQ141" s="3"/>
       <c r="AR141" s="3"/>
-    </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS141" s="3"/>
+    </row>
+    <row r="142" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -7397,8 +7595,9 @@
       <c r="AP142" s="3"/>
       <c r="AQ142" s="3"/>
       <c r="AR142" s="3"/>
-    </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS142" s="3"/>
+    </row>
+    <row r="143" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -7443,8 +7642,9 @@
       <c r="AP143" s="3"/>
       <c r="AQ143" s="3"/>
       <c r="AR143" s="3"/>
-    </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS143" s="3"/>
+    </row>
+    <row r="144" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7489,8 +7689,9 @@
       <c r="AP144" s="3"/>
       <c r="AQ144" s="3"/>
       <c r="AR144" s="3"/>
-    </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS144" s="3"/>
+    </row>
+    <row r="145" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -7535,8 +7736,9 @@
       <c r="AP145" s="3"/>
       <c r="AQ145" s="3"/>
       <c r="AR145" s="3"/>
-    </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS145" s="3"/>
+    </row>
+    <row r="146" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -7581,8 +7783,9 @@
       <c r="AP146" s="3"/>
       <c r="AQ146" s="3"/>
       <c r="AR146" s="3"/>
-    </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS146" s="3"/>
+    </row>
+    <row r="147" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -7627,8 +7830,9 @@
       <c r="AP147" s="3"/>
       <c r="AQ147" s="3"/>
       <c r="AR147" s="3"/>
-    </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS147" s="3"/>
+    </row>
+    <row r="148" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -7673,8 +7877,9 @@
       <c r="AP148" s="3"/>
       <c r="AQ148" s="3"/>
       <c r="AR148" s="3"/>
-    </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS148" s="3"/>
+    </row>
+    <row r="149" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -7719,8 +7924,9 @@
       <c r="AP149" s="3"/>
       <c r="AQ149" s="3"/>
       <c r="AR149" s="3"/>
-    </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS149" s="3"/>
+    </row>
+    <row r="150" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -7765,8 +7971,9 @@
       <c r="AP150" s="3"/>
       <c r="AQ150" s="3"/>
       <c r="AR150" s="3"/>
-    </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS150" s="3"/>
+    </row>
+    <row r="151" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -7811,8 +8018,9 @@
       <c r="AP151" s="3"/>
       <c r="AQ151" s="3"/>
       <c r="AR151" s="3"/>
-    </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS151" s="3"/>
+    </row>
+    <row r="152" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -7857,8 +8065,9 @@
       <c r="AP152" s="3"/>
       <c r="AQ152" s="3"/>
       <c r="AR152" s="3"/>
-    </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS152" s="3"/>
+    </row>
+    <row r="153" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -7903,8 +8112,9 @@
       <c r="AP153" s="3"/>
       <c r="AQ153" s="3"/>
       <c r="AR153" s="3"/>
-    </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS153" s="3"/>
+    </row>
+    <row r="154" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -7949,8 +8159,9 @@
       <c r="AP154" s="3"/>
       <c r="AQ154" s="3"/>
       <c r="AR154" s="3"/>
-    </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS154" s="3"/>
+    </row>
+    <row r="155" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -7995,8 +8206,9 @@
       <c r="AP155" s="3"/>
       <c r="AQ155" s="3"/>
       <c r="AR155" s="3"/>
-    </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS155" s="3"/>
+    </row>
+    <row r="156" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -8041,8 +8253,9 @@
       <c r="AP156" s="3"/>
       <c r="AQ156" s="3"/>
       <c r="AR156" s="3"/>
-    </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS156" s="3"/>
+    </row>
+    <row r="157" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -8087,8 +8300,9 @@
       <c r="AP157" s="3"/>
       <c r="AQ157" s="3"/>
       <c r="AR157" s="3"/>
-    </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS157" s="3"/>
+    </row>
+    <row r="158" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8133,8 +8347,9 @@
       <c r="AP158" s="3"/>
       <c r="AQ158" s="3"/>
       <c r="AR158" s="3"/>
-    </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS158" s="3"/>
+    </row>
+    <row r="159" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8179,8 +8394,9 @@
       <c r="AP159" s="3"/>
       <c r="AQ159" s="3"/>
       <c r="AR159" s="3"/>
-    </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS159" s="3"/>
+    </row>
+    <row r="160" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8225,8 +8441,9 @@
       <c r="AP160" s="3"/>
       <c r="AQ160" s="3"/>
       <c r="AR160" s="3"/>
-    </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS160" s="3"/>
+    </row>
+    <row r="161" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8271,8 +8488,9 @@
       <c r="AP161" s="3"/>
       <c r="AQ161" s="3"/>
       <c r="AR161" s="3"/>
-    </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS161" s="3"/>
+    </row>
+    <row r="162" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -8317,8 +8535,9 @@
       <c r="AP162" s="3"/>
       <c r="AQ162" s="3"/>
       <c r="AR162" s="3"/>
-    </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS162" s="3"/>
+    </row>
+    <row r="163" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -8363,8 +8582,9 @@
       <c r="AP163" s="3"/>
       <c r="AQ163" s="3"/>
       <c r="AR163" s="3"/>
-    </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS163" s="3"/>
+    </row>
+    <row r="164" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -8409,8 +8629,9 @@
       <c r="AP164" s="3"/>
       <c r="AQ164" s="3"/>
       <c r="AR164" s="3"/>
-    </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS164" s="3"/>
+    </row>
+    <row r="165" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -8455,8 +8676,9 @@
       <c r="AP165" s="3"/>
       <c r="AQ165" s="3"/>
       <c r="AR165" s="3"/>
-    </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS165" s="3"/>
+    </row>
+    <row r="166" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -8501,8 +8723,9 @@
       <c r="AP166" s="3"/>
       <c r="AQ166" s="3"/>
       <c r="AR166" s="3"/>
-    </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS166" s="3"/>
+    </row>
+    <row r="167" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -8547,8 +8770,9 @@
       <c r="AP167" s="3"/>
       <c r="AQ167" s="3"/>
       <c r="AR167" s="3"/>
-    </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS167" s="3"/>
+    </row>
+    <row r="168" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -8593,8 +8817,9 @@
       <c r="AP168" s="3"/>
       <c r="AQ168" s="3"/>
       <c r="AR168" s="3"/>
-    </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS168" s="3"/>
+    </row>
+    <row r="169" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -8639,8 +8864,9 @@
       <c r="AP169" s="3"/>
       <c r="AQ169" s="3"/>
       <c r="AR169" s="3"/>
-    </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS169" s="3"/>
+    </row>
+    <row r="170" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -8685,8 +8911,9 @@
       <c r="AP170" s="3"/>
       <c r="AQ170" s="3"/>
       <c r="AR170" s="3"/>
-    </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS170" s="3"/>
+    </row>
+    <row r="171" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -8731,8 +8958,9 @@
       <c r="AP171" s="3"/>
       <c r="AQ171" s="3"/>
       <c r="AR171" s="3"/>
-    </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS171" s="3"/>
+    </row>
+    <row r="172" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -8777,8 +9005,9 @@
       <c r="AP172" s="3"/>
       <c r="AQ172" s="3"/>
       <c r="AR172" s="3"/>
-    </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS172" s="3"/>
+    </row>
+    <row r="173" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -8823,8 +9052,9 @@
       <c r="AP173" s="3"/>
       <c r="AQ173" s="3"/>
       <c r="AR173" s="3"/>
-    </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS173" s="3"/>
+    </row>
+    <row r="174" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -8869,8 +9099,9 @@
       <c r="AP174" s="3"/>
       <c r="AQ174" s="3"/>
       <c r="AR174" s="3"/>
-    </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS174" s="3"/>
+    </row>
+    <row r="175" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -8915,8 +9146,9 @@
       <c r="AP175" s="3"/>
       <c r="AQ175" s="3"/>
       <c r="AR175" s="3"/>
-    </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS175" s="3"/>
+    </row>
+    <row r="176" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -8961,8 +9193,9 @@
       <c r="AP176" s="3"/>
       <c r="AQ176" s="3"/>
       <c r="AR176" s="3"/>
-    </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS176" s="3"/>
+    </row>
+    <row r="177" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -9007,8 +9240,9 @@
       <c r="AP177" s="3"/>
       <c r="AQ177" s="3"/>
       <c r="AR177" s="3"/>
-    </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS177" s="3"/>
+    </row>
+    <row r="178" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -9053,8 +9287,9 @@
       <c r="AP178" s="3"/>
       <c r="AQ178" s="3"/>
       <c r="AR178" s="3"/>
-    </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS178" s="3"/>
+    </row>
+    <row r="179" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -9099,8 +9334,9 @@
       <c r="AP179" s="3"/>
       <c r="AQ179" s="3"/>
       <c r="AR179" s="3"/>
-    </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS179" s="3"/>
+    </row>
+    <row r="180" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -9145,8 +9381,9 @@
       <c r="AP180" s="3"/>
       <c r="AQ180" s="3"/>
       <c r="AR180" s="3"/>
-    </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS180" s="3"/>
+    </row>
+    <row r="181" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -9191,8 +9428,9 @@
       <c r="AP181" s="3"/>
       <c r="AQ181" s="3"/>
       <c r="AR181" s="3"/>
-    </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS181" s="3"/>
+    </row>
+    <row r="182" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -9237,8 +9475,9 @@
       <c r="AP182" s="3"/>
       <c r="AQ182" s="3"/>
       <c r="AR182" s="3"/>
-    </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS182" s="3"/>
+    </row>
+    <row r="183" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -9283,8 +9522,9 @@
       <c r="AP183" s="3"/>
       <c r="AQ183" s="3"/>
       <c r="AR183" s="3"/>
-    </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS183" s="3"/>
+    </row>
+    <row r="184" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -9329,8 +9569,9 @@
       <c r="AP184" s="3"/>
       <c r="AQ184" s="3"/>
       <c r="AR184" s="3"/>
-    </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS184" s="3"/>
+    </row>
+    <row r="185" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -9375,8 +9616,9 @@
       <c r="AP185" s="3"/>
       <c r="AQ185" s="3"/>
       <c r="AR185" s="3"/>
-    </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS185" s="3"/>
+    </row>
+    <row r="186" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -9421,8 +9663,9 @@
       <c r="AP186" s="3"/>
       <c r="AQ186" s="3"/>
       <c r="AR186" s="3"/>
-    </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS186" s="3"/>
+    </row>
+    <row r="187" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -9467,8 +9710,9 @@
       <c r="AP187" s="3"/>
       <c r="AQ187" s="3"/>
       <c r="AR187" s="3"/>
-    </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS187" s="3"/>
+    </row>
+    <row r="188" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -9513,8 +9757,9 @@
       <c r="AP188" s="3"/>
       <c r="AQ188" s="3"/>
       <c r="AR188" s="3"/>
-    </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS188" s="3"/>
+    </row>
+    <row r="189" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -9559,8 +9804,9 @@
       <c r="AP189" s="3"/>
       <c r="AQ189" s="3"/>
       <c r="AR189" s="3"/>
-    </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS189" s="3"/>
+    </row>
+    <row r="190" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -9605,8 +9851,9 @@
       <c r="AP190" s="3"/>
       <c r="AQ190" s="3"/>
       <c r="AR190" s="3"/>
-    </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS190" s="3"/>
+    </row>
+    <row r="191" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -9651,8 +9898,9 @@
       <c r="AP191" s="3"/>
       <c r="AQ191" s="3"/>
       <c r="AR191" s="3"/>
-    </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS191" s="3"/>
+    </row>
+    <row r="192" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -9697,8 +9945,9 @@
       <c r="AP192" s="3"/>
       <c r="AQ192" s="3"/>
       <c r="AR192" s="3"/>
-    </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS192" s="3"/>
+    </row>
+    <row r="193" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -9743,8 +9992,9 @@
       <c r="AP193" s="3"/>
       <c r="AQ193" s="3"/>
       <c r="AR193" s="3"/>
-    </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS193" s="3"/>
+    </row>
+    <row r="194" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -9789,8 +10039,9 @@
       <c r="AP194" s="3"/>
       <c r="AQ194" s="3"/>
       <c r="AR194" s="3"/>
-    </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS194" s="3"/>
+    </row>
+    <row r="195" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -9835,8 +10086,9 @@
       <c r="AP195" s="3"/>
       <c r="AQ195" s="3"/>
       <c r="AR195" s="3"/>
-    </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS195" s="3"/>
+    </row>
+    <row r="196" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -9881,8 +10133,9 @@
       <c r="AP196" s="3"/>
       <c r="AQ196" s="3"/>
       <c r="AR196" s="3"/>
-    </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS196" s="3"/>
+    </row>
+    <row r="197" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -9927,8 +10180,9 @@
       <c r="AP197" s="3"/>
       <c r="AQ197" s="3"/>
       <c r="AR197" s="3"/>
-    </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS197" s="3"/>
+    </row>
+    <row r="198" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -9973,8 +10227,9 @@
       <c r="AP198" s="3"/>
       <c r="AQ198" s="3"/>
       <c r="AR198" s="3"/>
-    </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS198" s="3"/>
+    </row>
+    <row r="199" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10019,8 +10274,9 @@
       <c r="AP199" s="3"/>
       <c r="AQ199" s="3"/>
       <c r="AR199" s="3"/>
-    </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS199" s="3"/>
+    </row>
+    <row r="200" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10065,8 +10321,9 @@
       <c r="AP200" s="3"/>
       <c r="AQ200" s="3"/>
       <c r="AR200" s="3"/>
-    </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS200" s="3"/>
+    </row>
+    <row r="201" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -10111,8 +10368,9 @@
       <c r="AP201" s="3"/>
       <c r="AQ201" s="3"/>
       <c r="AR201" s="3"/>
-    </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS201" s="3"/>
+    </row>
+    <row r="202" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -10157,8 +10415,9 @@
       <c r="AP202" s="3"/>
       <c r="AQ202" s="3"/>
       <c r="AR202" s="3"/>
-    </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS202" s="3"/>
+    </row>
+    <row r="203" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -10203,8 +10462,9 @@
       <c r="AP203" s="3"/>
       <c r="AQ203" s="3"/>
       <c r="AR203" s="3"/>
-    </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS203" s="3"/>
+    </row>
+    <row r="204" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -10249,8 +10509,9 @@
       <c r="AP204" s="3"/>
       <c r="AQ204" s="3"/>
       <c r="AR204" s="3"/>
-    </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS204" s="3"/>
+    </row>
+    <row r="205" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -10295,8 +10556,9 @@
       <c r="AP205" s="3"/>
       <c r="AQ205" s="3"/>
       <c r="AR205" s="3"/>
-    </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS205" s="3"/>
+    </row>
+    <row r="206" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -10341,8 +10603,9 @@
       <c r="AP206" s="3"/>
       <c r="AQ206" s="3"/>
       <c r="AR206" s="3"/>
-    </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS206" s="3"/>
+    </row>
+    <row r="207" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -10387,8 +10650,9 @@
       <c r="AP207" s="3"/>
       <c r="AQ207" s="3"/>
       <c r="AR207" s="3"/>
-    </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS207" s="3"/>
+    </row>
+    <row r="208" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -10433,8 +10697,9 @@
       <c r="AP208" s="3"/>
       <c r="AQ208" s="3"/>
       <c r="AR208" s="3"/>
-    </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS208" s="3"/>
+    </row>
+    <row r="209" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -10479,8 +10744,9 @@
       <c r="AP209" s="3"/>
       <c r="AQ209" s="3"/>
       <c r="AR209" s="3"/>
-    </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS209" s="3"/>
+    </row>
+    <row r="210" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -10525,8 +10791,9 @@
       <c r="AP210" s="3"/>
       <c r="AQ210" s="3"/>
       <c r="AR210" s="3"/>
-    </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS210" s="3"/>
+    </row>
+    <row r="211" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -10571,8 +10838,9 @@
       <c r="AP211" s="3"/>
       <c r="AQ211" s="3"/>
       <c r="AR211" s="3"/>
-    </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS211" s="3"/>
+    </row>
+    <row r="212" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -10617,8 +10885,9 @@
       <c r="AP212" s="3"/>
       <c r="AQ212" s="3"/>
       <c r="AR212" s="3"/>
-    </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS212" s="3"/>
+    </row>
+    <row r="213" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -10663,8 +10932,9 @@
       <c r="AP213" s="3"/>
       <c r="AQ213" s="3"/>
       <c r="AR213" s="3"/>
-    </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS213" s="3"/>
+    </row>
+    <row r="214" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -10709,8 +10979,9 @@
       <c r="AP214" s="3"/>
       <c r="AQ214" s="3"/>
       <c r="AR214" s="3"/>
-    </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS214" s="3"/>
+    </row>
+    <row r="215" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -10755,8 +11026,9 @@
       <c r="AP215" s="3"/>
       <c r="AQ215" s="3"/>
       <c r="AR215" s="3"/>
-    </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS215" s="3"/>
+    </row>
+    <row r="216" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -10801,8 +11073,9 @@
       <c r="AP216" s="3"/>
       <c r="AQ216" s="3"/>
       <c r="AR216" s="3"/>
-    </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS216" s="3"/>
+    </row>
+    <row r="217" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -10847,8 +11120,9 @@
       <c r="AP217" s="3"/>
       <c r="AQ217" s="3"/>
       <c r="AR217" s="3"/>
-    </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS217" s="3"/>
+    </row>
+    <row r="218" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -10893,8 +11167,9 @@
       <c r="AP218" s="3"/>
       <c r="AQ218" s="3"/>
       <c r="AR218" s="3"/>
-    </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS218" s="3"/>
+    </row>
+    <row r="219" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -10939,8 +11214,9 @@
       <c r="AP219" s="3"/>
       <c r="AQ219" s="3"/>
       <c r="AR219" s="3"/>
-    </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS219" s="3"/>
+    </row>
+    <row r="220" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -10985,8 +11261,9 @@
       <c r="AP220" s="3"/>
       <c r="AQ220" s="3"/>
       <c r="AR220" s="3"/>
-    </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS220" s="3"/>
+    </row>
+    <row r="221" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -11031,8 +11308,9 @@
       <c r="AP221" s="3"/>
       <c r="AQ221" s="3"/>
       <c r="AR221" s="3"/>
-    </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS221" s="3"/>
+    </row>
+    <row r="222" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -11077,8 +11355,9 @@
       <c r="AP222" s="3"/>
       <c r="AQ222" s="3"/>
       <c r="AR222" s="3"/>
-    </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS222" s="3"/>
+    </row>
+    <row r="223" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -11123,8 +11402,9 @@
       <c r="AP223" s="3"/>
       <c r="AQ223" s="3"/>
       <c r="AR223" s="3"/>
-    </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS223" s="3"/>
+    </row>
+    <row r="224" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -11169,8 +11449,9 @@
       <c r="AP224" s="3"/>
       <c r="AQ224" s="3"/>
       <c r="AR224" s="3"/>
-    </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS224" s="3"/>
+    </row>
+    <row r="225" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -11215,8 +11496,9 @@
       <c r="AP225" s="3"/>
       <c r="AQ225" s="3"/>
       <c r="AR225" s="3"/>
-    </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS225" s="3"/>
+    </row>
+    <row r="226" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -11261,8 +11543,9 @@
       <c r="AP226" s="3"/>
       <c r="AQ226" s="3"/>
       <c r="AR226" s="3"/>
-    </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS226" s="3"/>
+    </row>
+    <row r="227" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -11307,8 +11590,9 @@
       <c r="AP227" s="3"/>
       <c r="AQ227" s="3"/>
       <c r="AR227" s="3"/>
-    </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS227" s="3"/>
+    </row>
+    <row r="228" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -11353,8 +11637,9 @@
       <c r="AP228" s="3"/>
       <c r="AQ228" s="3"/>
       <c r="AR228" s="3"/>
-    </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS228" s="3"/>
+    </row>
+    <row r="229" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -11399,8 +11684,9 @@
       <c r="AP229" s="3"/>
       <c r="AQ229" s="3"/>
       <c r="AR229" s="3"/>
-    </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS229" s="3"/>
+    </row>
+    <row r="230" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -11445,8 +11731,9 @@
       <c r="AP230" s="3"/>
       <c r="AQ230" s="3"/>
       <c r="AR230" s="3"/>
-    </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS230" s="3"/>
+    </row>
+    <row r="231" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -11491,8 +11778,9 @@
       <c r="AP231" s="3"/>
       <c r="AQ231" s="3"/>
       <c r="AR231" s="3"/>
-    </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS231" s="3"/>
+    </row>
+    <row r="232" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -11537,8 +11825,9 @@
       <c r="AP232" s="3"/>
       <c r="AQ232" s="3"/>
       <c r="AR232" s="3"/>
-    </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS232" s="3"/>
+    </row>
+    <row r="233" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -11583,8 +11872,9 @@
       <c r="AP233" s="3"/>
       <c r="AQ233" s="3"/>
       <c r="AR233" s="3"/>
-    </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS233" s="3"/>
+    </row>
+    <row r="234" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -11629,8 +11919,9 @@
       <c r="AP234" s="3"/>
       <c r="AQ234" s="3"/>
       <c r="AR234" s="3"/>
-    </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS234" s="3"/>
+    </row>
+    <row r="235" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -11675,8 +11966,9 @@
       <c r="AP235" s="3"/>
       <c r="AQ235" s="3"/>
       <c r="AR235" s="3"/>
-    </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS235" s="3"/>
+    </row>
+    <row r="236" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -11721,8 +12013,9 @@
       <c r="AP236" s="3"/>
       <c r="AQ236" s="3"/>
       <c r="AR236" s="3"/>
-    </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS236" s="3"/>
+    </row>
+    <row r="237" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -11767,8 +12060,9 @@
       <c r="AP237" s="3"/>
       <c r="AQ237" s="3"/>
       <c r="AR237" s="3"/>
-    </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS237" s="3"/>
+    </row>
+    <row r="238" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -11813,8 +12107,9 @@
       <c r="AP238" s="3"/>
       <c r="AQ238" s="3"/>
       <c r="AR238" s="3"/>
-    </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS238" s="3"/>
+    </row>
+    <row r="239" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -11859,8 +12154,9 @@
       <c r="AP239" s="3"/>
       <c r="AQ239" s="3"/>
       <c r="AR239" s="3"/>
-    </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS239" s="3"/>
+    </row>
+    <row r="240" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -11905,8 +12201,9 @@
       <c r="AP240" s="3"/>
       <c r="AQ240" s="3"/>
       <c r="AR240" s="3"/>
-    </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS240" s="3"/>
+    </row>
+    <row r="241" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -11951,8 +12248,9 @@
       <c r="AP241" s="3"/>
       <c r="AQ241" s="3"/>
       <c r="AR241" s="3"/>
-    </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS241" s="3"/>
+    </row>
+    <row r="242" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -11997,8 +12295,9 @@
       <c r="AP242" s="3"/>
       <c r="AQ242" s="3"/>
       <c r="AR242" s="3"/>
-    </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS242" s="3"/>
+    </row>
+    <row r="243" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -12043,8 +12342,9 @@
       <c r="AP243" s="3"/>
       <c r="AQ243" s="3"/>
       <c r="AR243" s="3"/>
-    </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS243" s="3"/>
+    </row>
+    <row r="244" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -12089,8 +12389,9 @@
       <c r="AP244" s="3"/>
       <c r="AQ244" s="3"/>
       <c r="AR244" s="3"/>
-    </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS244" s="3"/>
+    </row>
+    <row r="245" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -12135,8 +12436,9 @@
       <c r="AP245" s="3"/>
       <c r="AQ245" s="3"/>
       <c r="AR245" s="3"/>
-    </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS245" s="3"/>
+    </row>
+    <row r="246" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -12181,8 +12483,9 @@
       <c r="AP246" s="3"/>
       <c r="AQ246" s="3"/>
       <c r="AR246" s="3"/>
-    </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS246" s="3"/>
+    </row>
+    <row r="247" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -12227,8 +12530,9 @@
       <c r="AP247" s="3"/>
       <c r="AQ247" s="3"/>
       <c r="AR247" s="3"/>
-    </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS247" s="3"/>
+    </row>
+    <row r="248" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -12273,8 +12577,9 @@
       <c r="AP248" s="3"/>
       <c r="AQ248" s="3"/>
       <c r="AR248" s="3"/>
-    </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS248" s="3"/>
+    </row>
+    <row r="249" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -12319,8 +12624,9 @@
       <c r="AP249" s="3"/>
       <c r="AQ249" s="3"/>
       <c r="AR249" s="3"/>
-    </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS249" s="3"/>
+    </row>
+    <row r="250" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -12365,8 +12671,9 @@
       <c r="AP250" s="3"/>
       <c r="AQ250" s="3"/>
       <c r="AR250" s="3"/>
-    </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS250" s="3"/>
+    </row>
+    <row r="251" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -12411,8 +12718,9 @@
       <c r="AP251" s="3"/>
       <c r="AQ251" s="3"/>
       <c r="AR251" s="3"/>
-    </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS251" s="3"/>
+    </row>
+    <row r="252" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -12457,8 +12765,9 @@
       <c r="AP252" s="3"/>
       <c r="AQ252" s="3"/>
       <c r="AR252" s="3"/>
-    </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS252" s="3"/>
+    </row>
+    <row r="253" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -12503,8 +12812,9 @@
       <c r="AP253" s="3"/>
       <c r="AQ253" s="3"/>
       <c r="AR253" s="3"/>
-    </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS253" s="3"/>
+    </row>
+    <row r="254" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -12549,8 +12859,9 @@
       <c r="AP254" s="3"/>
       <c r="AQ254" s="3"/>
       <c r="AR254" s="3"/>
-    </row>
-    <row r="255" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS254" s="3"/>
+    </row>
+    <row r="255" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -12595,8 +12906,9 @@
       <c r="AP255" s="3"/>
       <c r="AQ255" s="3"/>
       <c r="AR255" s="3"/>
-    </row>
-    <row r="256" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS255" s="3"/>
+    </row>
+    <row r="256" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -12641,8 +12953,9 @@
       <c r="AP256" s="3"/>
       <c r="AQ256" s="3"/>
       <c r="AR256" s="3"/>
-    </row>
-    <row r="257" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS256" s="3"/>
+    </row>
+    <row r="257" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -12687,8 +13000,9 @@
       <c r="AP257" s="3"/>
       <c r="AQ257" s="3"/>
       <c r="AR257" s="3"/>
-    </row>
-    <row r="258" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS257" s="3"/>
+    </row>
+    <row r="258" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -12733,8 +13047,9 @@
       <c r="AP258" s="3"/>
       <c r="AQ258" s="3"/>
       <c r="AR258" s="3"/>
-    </row>
-    <row r="259" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS258" s="3"/>
+    </row>
+    <row r="259" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -12779,8 +13094,9 @@
       <c r="AP259" s="3"/>
       <c r="AQ259" s="3"/>
       <c r="AR259" s="3"/>
-    </row>
-    <row r="260" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS259" s="3"/>
+    </row>
+    <row r="260" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -12825,8 +13141,9 @@
       <c r="AP260" s="3"/>
       <c r="AQ260" s="3"/>
       <c r="AR260" s="3"/>
-    </row>
-    <row r="261" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS260" s="3"/>
+    </row>
+    <row r="261" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -12871,8 +13188,9 @@
       <c r="AP261" s="3"/>
       <c r="AQ261" s="3"/>
       <c r="AR261" s="3"/>
-    </row>
-    <row r="262" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS261" s="3"/>
+    </row>
+    <row r="262" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -12917,8 +13235,9 @@
       <c r="AP262" s="3"/>
       <c r="AQ262" s="3"/>
       <c r="AR262" s="3"/>
-    </row>
-    <row r="263" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS262" s="3"/>
+    </row>
+    <row r="263" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -12963,8 +13282,9 @@
       <c r="AP263" s="3"/>
       <c r="AQ263" s="3"/>
       <c r="AR263" s="3"/>
-    </row>
-    <row r="264" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS263" s="3"/>
+    </row>
+    <row r="264" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -13009,8 +13329,9 @@
       <c r="AP264" s="3"/>
       <c r="AQ264" s="3"/>
       <c r="AR264" s="3"/>
-    </row>
-    <row r="265" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS264" s="3"/>
+    </row>
+    <row r="265" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -13055,8 +13376,9 @@
       <c r="AP265" s="3"/>
       <c r="AQ265" s="3"/>
       <c r="AR265" s="3"/>
-    </row>
-    <row r="266" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS265" s="3"/>
+    </row>
+    <row r="266" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -13101,8 +13423,9 @@
       <c r="AP266" s="3"/>
       <c r="AQ266" s="3"/>
       <c r="AR266" s="3"/>
-    </row>
-    <row r="267" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS266" s="3"/>
+    </row>
+    <row r="267" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -13147,8 +13470,9 @@
       <c r="AP267" s="3"/>
       <c r="AQ267" s="3"/>
       <c r="AR267" s="3"/>
-    </row>
-    <row r="268" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS267" s="3"/>
+    </row>
+    <row r="268" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -13193,8 +13517,9 @@
       <c r="AP268" s="3"/>
       <c r="AQ268" s="3"/>
       <c r="AR268" s="3"/>
-    </row>
-    <row r="269" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS268" s="3"/>
+    </row>
+    <row r="269" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -13239,8 +13564,9 @@
       <c r="AP269" s="3"/>
       <c r="AQ269" s="3"/>
       <c r="AR269" s="3"/>
-    </row>
-    <row r="270" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS269" s="3"/>
+    </row>
+    <row r="270" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -13285,8 +13611,9 @@
       <c r="AP270" s="3"/>
       <c r="AQ270" s="3"/>
       <c r="AR270" s="3"/>
-    </row>
-    <row r="271" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS270" s="3"/>
+    </row>
+    <row r="271" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -13331,8 +13658,9 @@
       <c r="AP271" s="3"/>
       <c r="AQ271" s="3"/>
       <c r="AR271" s="3"/>
-    </row>
-    <row r="272" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS271" s="3"/>
+    </row>
+    <row r="272" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -13377,8 +13705,9 @@
       <c r="AP272" s="3"/>
       <c r="AQ272" s="3"/>
       <c r="AR272" s="3"/>
-    </row>
-    <row r="273" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS272" s="3"/>
+    </row>
+    <row r="273" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -13423,8 +13752,9 @@
       <c r="AP273" s="3"/>
       <c r="AQ273" s="3"/>
       <c r="AR273" s="3"/>
-    </row>
-    <row r="274" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS273" s="3"/>
+    </row>
+    <row r="274" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -13469,8 +13799,9 @@
       <c r="AP274" s="3"/>
       <c r="AQ274" s="3"/>
       <c r="AR274" s="3"/>
-    </row>
-    <row r="275" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS274" s="3"/>
+    </row>
+    <row r="275" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -13515,8 +13846,9 @@
       <c r="AP275" s="3"/>
       <c r="AQ275" s="3"/>
       <c r="AR275" s="3"/>
-    </row>
-    <row r="276" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS275" s="3"/>
+    </row>
+    <row r="276" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -13561,8 +13893,9 @@
       <c r="AP276" s="3"/>
       <c r="AQ276" s="3"/>
       <c r="AR276" s="3"/>
-    </row>
-    <row r="277" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS276" s="3"/>
+    </row>
+    <row r="277" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -13607,8 +13940,9 @@
       <c r="AP277" s="3"/>
       <c r="AQ277" s="3"/>
       <c r="AR277" s="3"/>
-    </row>
-    <row r="278" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS277" s="3"/>
+    </row>
+    <row r="278" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -13653,8 +13987,9 @@
       <c r="AP278" s="3"/>
       <c r="AQ278" s="3"/>
       <c r="AR278" s="3"/>
-    </row>
-    <row r="279" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS278" s="3"/>
+    </row>
+    <row r="279" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -13699,8 +14034,9 @@
       <c r="AP279" s="3"/>
       <c r="AQ279" s="3"/>
       <c r="AR279" s="3"/>
-    </row>
-    <row r="280" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS279" s="3"/>
+    </row>
+    <row r="280" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -13745,8 +14081,9 @@
       <c r="AP280" s="3"/>
       <c r="AQ280" s="3"/>
       <c r="AR280" s="3"/>
-    </row>
-    <row r="281" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS280" s="3"/>
+    </row>
+    <row r="281" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -13791,8 +14128,9 @@
       <c r="AP281" s="3"/>
       <c r="AQ281" s="3"/>
       <c r="AR281" s="3"/>
-    </row>
-    <row r="282" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS281" s="3"/>
+    </row>
+    <row r="282" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -13837,8 +14175,9 @@
       <c r="AP282" s="3"/>
       <c r="AQ282" s="3"/>
       <c r="AR282" s="3"/>
-    </row>
-    <row r="283" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS282" s="3"/>
+    </row>
+    <row r="283" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -13883,8 +14222,9 @@
       <c r="AP283" s="3"/>
       <c r="AQ283" s="3"/>
       <c r="AR283" s="3"/>
-    </row>
-    <row r="284" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS283" s="3"/>
+    </row>
+    <row r="284" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -13929,8 +14269,9 @@
       <c r="AP284" s="3"/>
       <c r="AQ284" s="3"/>
       <c r="AR284" s="3"/>
-    </row>
-    <row r="285" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS284" s="3"/>
+    </row>
+    <row r="285" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -13975,8 +14316,9 @@
       <c r="AP285" s="3"/>
       <c r="AQ285" s="3"/>
       <c r="AR285" s="3"/>
-    </row>
-    <row r="286" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS285" s="3"/>
+    </row>
+    <row r="286" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -14021,8 +14363,9 @@
       <c r="AP286" s="3"/>
       <c r="AQ286" s="3"/>
       <c r="AR286" s="3"/>
-    </row>
-    <row r="287" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS286" s="3"/>
+    </row>
+    <row r="287" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -14067,8 +14410,9 @@
       <c r="AP287" s="3"/>
       <c r="AQ287" s="3"/>
       <c r="AR287" s="3"/>
-    </row>
-    <row r="288" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS287" s="3"/>
+    </row>
+    <row r="288" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -14113,8 +14457,9 @@
       <c r="AP288" s="3"/>
       <c r="AQ288" s="3"/>
       <c r="AR288" s="3"/>
-    </row>
-    <row r="289" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS288" s="3"/>
+    </row>
+    <row r="289" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -14159,8 +14504,9 @@
       <c r="AP289" s="3"/>
       <c r="AQ289" s="3"/>
       <c r="AR289" s="3"/>
-    </row>
-    <row r="290" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS289" s="3"/>
+    </row>
+    <row r="290" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -14205,8 +14551,9 @@
       <c r="AP290" s="3"/>
       <c r="AQ290" s="3"/>
       <c r="AR290" s="3"/>
-    </row>
-    <row r="291" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS290" s="3"/>
+    </row>
+    <row r="291" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -14251,8 +14598,9 @@
       <c r="AP291" s="3"/>
       <c r="AQ291" s="3"/>
       <c r="AR291" s="3"/>
-    </row>
-    <row r="292" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS291" s="3"/>
+    </row>
+    <row r="292" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -14297,8 +14645,9 @@
       <c r="AP292" s="3"/>
       <c r="AQ292" s="3"/>
       <c r="AR292" s="3"/>
-    </row>
-    <row r="293" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS292" s="3"/>
+    </row>
+    <row r="293" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -14343,8 +14692,9 @@
       <c r="AP293" s="3"/>
       <c r="AQ293" s="3"/>
       <c r="AR293" s="3"/>
-    </row>
-    <row r="294" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS293" s="3"/>
+    </row>
+    <row r="294" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -14389,8 +14739,9 @@
       <c r="AP294" s="3"/>
       <c r="AQ294" s="3"/>
       <c r="AR294" s="3"/>
-    </row>
-    <row r="295" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS294" s="3"/>
+    </row>
+    <row r="295" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -14435,8 +14786,9 @@
       <c r="AP295" s="3"/>
       <c r="AQ295" s="3"/>
       <c r="AR295" s="3"/>
-    </row>
-    <row r="296" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS295" s="3"/>
+    </row>
+    <row r="296" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -14481,8 +14833,9 @@
       <c r="AP296" s="3"/>
       <c r="AQ296" s="3"/>
       <c r="AR296" s="3"/>
-    </row>
-    <row r="297" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS296" s="3"/>
+    </row>
+    <row r="297" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -14527,8 +14880,9 @@
       <c r="AP297" s="3"/>
       <c r="AQ297" s="3"/>
       <c r="AR297" s="3"/>
-    </row>
-    <row r="298" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS297" s="3"/>
+    </row>
+    <row r="298" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -14573,8 +14927,9 @@
       <c r="AP298" s="3"/>
       <c r="AQ298" s="3"/>
       <c r="AR298" s="3"/>
-    </row>
-    <row r="299" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS298" s="3"/>
+    </row>
+    <row r="299" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -14619,8 +14974,9 @@
       <c r="AP299" s="3"/>
       <c r="AQ299" s="3"/>
       <c r="AR299" s="3"/>
-    </row>
-    <row r="300" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS299" s="3"/>
+    </row>
+    <row r="300" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -14665,8 +15021,9 @@
       <c r="AP300" s="3"/>
       <c r="AQ300" s="3"/>
       <c r="AR300" s="3"/>
-    </row>
-    <row r="301" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS300" s="3"/>
+    </row>
+    <row r="301" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -14711,8 +15068,9 @@
       <c r="AP301" s="3"/>
       <c r="AQ301" s="3"/>
       <c r="AR301" s="3"/>
-    </row>
-    <row r="302" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS301" s="3"/>
+    </row>
+    <row r="302" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -14757,8 +15115,9 @@
       <c r="AP302" s="3"/>
       <c r="AQ302" s="3"/>
       <c r="AR302" s="3"/>
-    </row>
-    <row r="303" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS302" s="3"/>
+    </row>
+    <row r="303" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -14803,8 +15162,9 @@
       <c r="AP303" s="3"/>
       <c r="AQ303" s="3"/>
       <c r="AR303" s="3"/>
-    </row>
-    <row r="304" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS303" s="3"/>
+    </row>
+    <row r="304" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -14849,8 +15209,9 @@
       <c r="AP304" s="3"/>
       <c r="AQ304" s="3"/>
       <c r="AR304" s="3"/>
-    </row>
-    <row r="305" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS304" s="3"/>
+    </row>
+    <row r="305" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -14895,8 +15256,9 @@
       <c r="AP305" s="3"/>
       <c r="AQ305" s="3"/>
       <c r="AR305" s="3"/>
-    </row>
-    <row r="306" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS305" s="3"/>
+    </row>
+    <row r="306" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -14941,8 +15303,9 @@
       <c r="AP306" s="3"/>
       <c r="AQ306" s="3"/>
       <c r="AR306" s="3"/>
-    </row>
-    <row r="307" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS306" s="3"/>
+    </row>
+    <row r="307" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -14987,8 +15350,9 @@
       <c r="AP307" s="3"/>
       <c r="AQ307" s="3"/>
       <c r="AR307" s="3"/>
-    </row>
-    <row r="308" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS307" s="3"/>
+    </row>
+    <row r="308" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -15033,8 +15397,9 @@
       <c r="AP308" s="3"/>
       <c r="AQ308" s="3"/>
       <c r="AR308" s="3"/>
-    </row>
-    <row r="309" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS308" s="3"/>
+    </row>
+    <row r="309" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -15079,8 +15444,9 @@
       <c r="AP309" s="3"/>
       <c r="AQ309" s="3"/>
       <c r="AR309" s="3"/>
-    </row>
-    <row r="310" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS309" s="3"/>
+    </row>
+    <row r="310" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -15125,8 +15491,9 @@
       <c r="AP310" s="3"/>
       <c r="AQ310" s="3"/>
       <c r="AR310" s="3"/>
-    </row>
-    <row r="311" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS310" s="3"/>
+    </row>
+    <row r="311" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -15171,8 +15538,9 @@
       <c r="AP311" s="3"/>
       <c r="AQ311" s="3"/>
       <c r="AR311" s="3"/>
-    </row>
-    <row r="312" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS311" s="3"/>
+    </row>
+    <row r="312" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -15217,8 +15585,9 @@
       <c r="AP312" s="3"/>
       <c r="AQ312" s="3"/>
       <c r="AR312" s="3"/>
-    </row>
-    <row r="313" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS312" s="3"/>
+    </row>
+    <row r="313" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -15263,8 +15632,9 @@
       <c r="AP313" s="3"/>
       <c r="AQ313" s="3"/>
       <c r="AR313" s="3"/>
-    </row>
-    <row r="314" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS313" s="3"/>
+    </row>
+    <row r="314" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -15309,8 +15679,9 @@
       <c r="AP314" s="3"/>
       <c r="AQ314" s="3"/>
       <c r="AR314" s="3"/>
-    </row>
-    <row r="315" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS314" s="3"/>
+    </row>
+    <row r="315" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -15355,8 +15726,9 @@
       <c r="AP315" s="3"/>
       <c r="AQ315" s="3"/>
       <c r="AR315" s="3"/>
-    </row>
-    <row r="316" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS315" s="3"/>
+    </row>
+    <row r="316" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -15401,8 +15773,9 @@
       <c r="AP316" s="3"/>
       <c r="AQ316" s="3"/>
       <c r="AR316" s="3"/>
-    </row>
-    <row r="317" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS316" s="3"/>
+    </row>
+    <row r="317" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -15447,8 +15820,9 @@
       <c r="AP317" s="3"/>
       <c r="AQ317" s="3"/>
       <c r="AR317" s="3"/>
-    </row>
-    <row r="318" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS317" s="3"/>
+    </row>
+    <row r="318" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -15493,8 +15867,9 @@
       <c r="AP318" s="3"/>
       <c r="AQ318" s="3"/>
       <c r="AR318" s="3"/>
-    </row>
-    <row r="319" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS318" s="3"/>
+    </row>
+    <row r="319" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -15539,8 +15914,9 @@
       <c r="AP319" s="3"/>
       <c r="AQ319" s="3"/>
       <c r="AR319" s="3"/>
-    </row>
-    <row r="320" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS319" s="3"/>
+    </row>
+    <row r="320" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -15585,8 +15961,9 @@
       <c r="AP320" s="3"/>
       <c r="AQ320" s="3"/>
       <c r="AR320" s="3"/>
-    </row>
-    <row r="321" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS320" s="3"/>
+    </row>
+    <row r="321" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -15631,8 +16008,9 @@
       <c r="AP321" s="3"/>
       <c r="AQ321" s="3"/>
       <c r="AR321" s="3"/>
-    </row>
-    <row r="322" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS321" s="3"/>
+    </row>
+    <row r="322" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -15677,8 +16055,9 @@
       <c r="AP322" s="3"/>
       <c r="AQ322" s="3"/>
       <c r="AR322" s="3"/>
-    </row>
-    <row r="323" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS322" s="3"/>
+    </row>
+    <row r="323" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -15723,8 +16102,9 @@
       <c r="AP323" s="3"/>
       <c r="AQ323" s="3"/>
       <c r="AR323" s="3"/>
-    </row>
-    <row r="324" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS323" s="3"/>
+    </row>
+    <row r="324" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -15769,8 +16149,9 @@
       <c r="AP324" s="3"/>
       <c r="AQ324" s="3"/>
       <c r="AR324" s="3"/>
-    </row>
-    <row r="325" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS324" s="3"/>
+    </row>
+    <row r="325" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -15815,8 +16196,9 @@
       <c r="AP325" s="3"/>
       <c r="AQ325" s="3"/>
       <c r="AR325" s="3"/>
-    </row>
-    <row r="326" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS325" s="3"/>
+    </row>
+    <row r="326" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -15861,8 +16243,9 @@
       <c r="AP326" s="3"/>
       <c r="AQ326" s="3"/>
       <c r="AR326" s="3"/>
-    </row>
-    <row r="327" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS326" s="3"/>
+    </row>
+    <row r="327" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -15907,8 +16290,9 @@
       <c r="AP327" s="3"/>
       <c r="AQ327" s="3"/>
       <c r="AR327" s="3"/>
-    </row>
-    <row r="328" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS327" s="3"/>
+    </row>
+    <row r="328" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -15953,8 +16337,9 @@
       <c r="AP328" s="3"/>
       <c r="AQ328" s="3"/>
       <c r="AR328" s="3"/>
-    </row>
-    <row r="329" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS328" s="3"/>
+    </row>
+    <row r="329" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -15999,8 +16384,9 @@
       <c r="AP329" s="3"/>
       <c r="AQ329" s="3"/>
       <c r="AR329" s="3"/>
-    </row>
-    <row r="330" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS329" s="3"/>
+    </row>
+    <row r="330" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -16045,8 +16431,9 @@
       <c r="AP330" s="3"/>
       <c r="AQ330" s="3"/>
       <c r="AR330" s="3"/>
-    </row>
-    <row r="331" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS330" s="3"/>
+    </row>
+    <row r="331" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -16091,8 +16478,9 @@
       <c r="AP331" s="3"/>
       <c r="AQ331" s="3"/>
       <c r="AR331" s="3"/>
-    </row>
-    <row r="332" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS331" s="3"/>
+    </row>
+    <row r="332" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -16137,8 +16525,9 @@
       <c r="AP332" s="3"/>
       <c r="AQ332" s="3"/>
       <c r="AR332" s="3"/>
-    </row>
-    <row r="333" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS332" s="3"/>
+    </row>
+    <row r="333" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -16183,8 +16572,9 @@
       <c r="AP333" s="3"/>
       <c r="AQ333" s="3"/>
       <c r="AR333" s="3"/>
-    </row>
-    <row r="334" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS333" s="3"/>
+    </row>
+    <row r="334" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -16229,8 +16619,9 @@
       <c r="AP334" s="3"/>
       <c r="AQ334" s="3"/>
       <c r="AR334" s="3"/>
-    </row>
-    <row r="335" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS334" s="3"/>
+    </row>
+    <row r="335" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -16275,8 +16666,9 @@
       <c r="AP335" s="3"/>
       <c r="AQ335" s="3"/>
       <c r="AR335" s="3"/>
-    </row>
-    <row r="336" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS335" s="3"/>
+    </row>
+    <row r="336" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -16321,8 +16713,9 @@
       <c r="AP336" s="3"/>
       <c r="AQ336" s="3"/>
       <c r="AR336" s="3"/>
-    </row>
-    <row r="337" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS336" s="3"/>
+    </row>
+    <row r="337" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -16367,8 +16760,9 @@
       <c r="AP337" s="3"/>
       <c r="AQ337" s="3"/>
       <c r="AR337" s="3"/>
-    </row>
-    <row r="338" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS337" s="3"/>
+    </row>
+    <row r="338" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -16413,8 +16807,9 @@
       <c r="AP338" s="3"/>
       <c r="AQ338" s="3"/>
       <c r="AR338" s="3"/>
-    </row>
-    <row r="339" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS338" s="3"/>
+    </row>
+    <row r="339" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -16459,8 +16854,9 @@
       <c r="AP339" s="3"/>
       <c r="AQ339" s="3"/>
       <c r="AR339" s="3"/>
-    </row>
-    <row r="340" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS339" s="3"/>
+    </row>
+    <row r="340" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -16505,8 +16901,9 @@
       <c r="AP340" s="3"/>
       <c r="AQ340" s="3"/>
       <c r="AR340" s="3"/>
-    </row>
-    <row r="341" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS340" s="3"/>
+    </row>
+    <row r="341" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -16551,8 +16948,9 @@
       <c r="AP341" s="3"/>
       <c r="AQ341" s="3"/>
       <c r="AR341" s="3"/>
-    </row>
-    <row r="342" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS341" s="3"/>
+    </row>
+    <row r="342" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -16597,8 +16995,9 @@
       <c r="AP342" s="3"/>
       <c r="AQ342" s="3"/>
       <c r="AR342" s="3"/>
-    </row>
-    <row r="343" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS342" s="3"/>
+    </row>
+    <row r="343" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -16643,8 +17042,9 @@
       <c r="AP343" s="3"/>
       <c r="AQ343" s="3"/>
       <c r="AR343" s="3"/>
-    </row>
-    <row r="344" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS343" s="3"/>
+    </row>
+    <row r="344" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -16689,8 +17089,9 @@
       <c r="AP344" s="3"/>
       <c r="AQ344" s="3"/>
       <c r="AR344" s="3"/>
-    </row>
-    <row r="345" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS344" s="3"/>
+    </row>
+    <row r="345" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -16735,8 +17136,9 @@
       <c r="AP345" s="3"/>
       <c r="AQ345" s="3"/>
       <c r="AR345" s="3"/>
-    </row>
-    <row r="346" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS345" s="3"/>
+    </row>
+    <row r="346" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -16781,8 +17183,9 @@
       <c r="AP346" s="3"/>
       <c r="AQ346" s="3"/>
       <c r="AR346" s="3"/>
-    </row>
-    <row r="347" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS346" s="3"/>
+    </row>
+    <row r="347" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -16827,8 +17230,9 @@
       <c r="AP347" s="3"/>
       <c r="AQ347" s="3"/>
       <c r="AR347" s="3"/>
-    </row>
-    <row r="348" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS347" s="3"/>
+    </row>
+    <row r="348" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -16873,8 +17277,9 @@
       <c r="AP348" s="3"/>
       <c r="AQ348" s="3"/>
       <c r="AR348" s="3"/>
-    </row>
-    <row r="349" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS348" s="3"/>
+    </row>
+    <row r="349" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -16919,8 +17324,9 @@
       <c r="AP349" s="3"/>
       <c r="AQ349" s="3"/>
       <c r="AR349" s="3"/>
-    </row>
-    <row r="350" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS349" s="3"/>
+    </row>
+    <row r="350" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -16965,8 +17371,9 @@
       <c r="AP350" s="3"/>
       <c r="AQ350" s="3"/>
       <c r="AR350" s="3"/>
-    </row>
-    <row r="351" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS350" s="3"/>
+    </row>
+    <row r="351" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -17011,8 +17418,9 @@
       <c r="AP351" s="3"/>
       <c r="AQ351" s="3"/>
       <c r="AR351" s="3"/>
-    </row>
-    <row r="352" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS351" s="3"/>
+    </row>
+    <row r="352" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -17057,8 +17465,9 @@
       <c r="AP352" s="3"/>
       <c r="AQ352" s="3"/>
       <c r="AR352" s="3"/>
-    </row>
-    <row r="353" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS352" s="3"/>
+    </row>
+    <row r="353" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -17103,8 +17512,9 @@
       <c r="AP353" s="3"/>
       <c r="AQ353" s="3"/>
       <c r="AR353" s="3"/>
-    </row>
-    <row r="354" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS353" s="3"/>
+    </row>
+    <row r="354" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -17149,8 +17559,9 @@
       <c r="AP354" s="3"/>
       <c r="AQ354" s="3"/>
       <c r="AR354" s="3"/>
-    </row>
-    <row r="355" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS354" s="3"/>
+    </row>
+    <row r="355" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -17195,8 +17606,9 @@
       <c r="AP355" s="3"/>
       <c r="AQ355" s="3"/>
       <c r="AR355" s="3"/>
-    </row>
-    <row r="356" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS355" s="3"/>
+    </row>
+    <row r="356" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -17241,8 +17653,9 @@
       <c r="AP356" s="3"/>
       <c r="AQ356" s="3"/>
       <c r="AR356" s="3"/>
-    </row>
-    <row r="357" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS356" s="3"/>
+    </row>
+    <row r="357" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -17287,8 +17700,9 @@
       <c r="AP357" s="3"/>
       <c r="AQ357" s="3"/>
       <c r="AR357" s="3"/>
-    </row>
-    <row r="358" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS357" s="3"/>
+    </row>
+    <row r="358" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -17333,8 +17747,9 @@
       <c r="AP358" s="3"/>
       <c r="AQ358" s="3"/>
       <c r="AR358" s="3"/>
-    </row>
-    <row r="359" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS358" s="3"/>
+    </row>
+    <row r="359" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -17379,8 +17794,9 @@
       <c r="AP359" s="3"/>
       <c r="AQ359" s="3"/>
       <c r="AR359" s="3"/>
-    </row>
-    <row r="360" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS359" s="3"/>
+    </row>
+    <row r="360" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -17425,8 +17841,9 @@
       <c r="AP360" s="3"/>
       <c r="AQ360" s="3"/>
       <c r="AR360" s="3"/>
-    </row>
-    <row r="361" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS360" s="3"/>
+    </row>
+    <row r="361" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -17471,8 +17888,9 @@
       <c r="AP361" s="3"/>
       <c r="AQ361" s="3"/>
       <c r="AR361" s="3"/>
-    </row>
-    <row r="362" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS361" s="3"/>
+    </row>
+    <row r="362" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -17517,8 +17935,9 @@
       <c r="AP362" s="3"/>
       <c r="AQ362" s="3"/>
       <c r="AR362" s="3"/>
-    </row>
-    <row r="363" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS362" s="3"/>
+    </row>
+    <row r="363" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -17563,8 +17982,9 @@
       <c r="AP363" s="3"/>
       <c r="AQ363" s="3"/>
       <c r="AR363" s="3"/>
-    </row>
-    <row r="364" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS363" s="3"/>
+    </row>
+    <row r="364" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -17609,8 +18029,9 @@
       <c r="AP364" s="3"/>
       <c r="AQ364" s="3"/>
       <c r="AR364" s="3"/>
-    </row>
-    <row r="365" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS364" s="3"/>
+    </row>
+    <row r="365" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -17655,8 +18076,9 @@
       <c r="AP365" s="3"/>
       <c r="AQ365" s="3"/>
       <c r="AR365" s="3"/>
-    </row>
-    <row r="366" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS365" s="3"/>
+    </row>
+    <row r="366" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -17701,8 +18123,9 @@
       <c r="AP366" s="3"/>
       <c r="AQ366" s="3"/>
       <c r="AR366" s="3"/>
-    </row>
-    <row r="367" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS366" s="3"/>
+    </row>
+    <row r="367" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -17747,8 +18170,9 @@
       <c r="AP367" s="3"/>
       <c r="AQ367" s="3"/>
       <c r="AR367" s="3"/>
-    </row>
-    <row r="368" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS367" s="3"/>
+    </row>
+    <row r="368" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -17793,8 +18217,9 @@
       <c r="AP368" s="3"/>
       <c r="AQ368" s="3"/>
       <c r="AR368" s="3"/>
-    </row>
-    <row r="369" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS368" s="3"/>
+    </row>
+    <row r="369" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -17839,8 +18264,9 @@
       <c r="AP369" s="3"/>
       <c r="AQ369" s="3"/>
       <c r="AR369" s="3"/>
-    </row>
-    <row r="370" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS369" s="3"/>
+    </row>
+    <row r="370" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -17885,8 +18311,9 @@
       <c r="AP370" s="3"/>
       <c r="AQ370" s="3"/>
       <c r="AR370" s="3"/>
-    </row>
-    <row r="371" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS370" s="3"/>
+    </row>
+    <row r="371" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -17931,8 +18358,9 @@
       <c r="AP371" s="3"/>
       <c r="AQ371" s="3"/>
       <c r="AR371" s="3"/>
-    </row>
-    <row r="372" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS371" s="3"/>
+    </row>
+    <row r="372" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -17977,8 +18405,9 @@
       <c r="AP372" s="3"/>
       <c r="AQ372" s="3"/>
       <c r="AR372" s="3"/>
-    </row>
-    <row r="373" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS372" s="3"/>
+    </row>
+    <row r="373" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -18023,8 +18452,9 @@
       <c r="AP373" s="3"/>
       <c r="AQ373" s="3"/>
       <c r="AR373" s="3"/>
-    </row>
-    <row r="374" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS373" s="3"/>
+    </row>
+    <row r="374" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -18069,8 +18499,9 @@
       <c r="AP374" s="3"/>
       <c r="AQ374" s="3"/>
       <c r="AR374" s="3"/>
-    </row>
-    <row r="375" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS374" s="3"/>
+    </row>
+    <row r="375" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -18115,8 +18546,9 @@
       <c r="AP375" s="3"/>
       <c r="AQ375" s="3"/>
       <c r="AR375" s="3"/>
-    </row>
-    <row r="376" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS375" s="3"/>
+    </row>
+    <row r="376" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -18161,8 +18593,9 @@
       <c r="AP376" s="3"/>
       <c r="AQ376" s="3"/>
       <c r="AR376" s="3"/>
-    </row>
-    <row r="377" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS376" s="3"/>
+    </row>
+    <row r="377" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -18207,8 +18640,9 @@
       <c r="AP377" s="3"/>
       <c r="AQ377" s="3"/>
       <c r="AR377" s="3"/>
-    </row>
-    <row r="378" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS377" s="3"/>
+    </row>
+    <row r="378" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -18253,8 +18687,9 @@
       <c r="AP378" s="3"/>
       <c r="AQ378" s="3"/>
       <c r="AR378" s="3"/>
-    </row>
-    <row r="379" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS378" s="3"/>
+    </row>
+    <row r="379" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -18299,8 +18734,9 @@
       <c r="AP379" s="3"/>
       <c r="AQ379" s="3"/>
       <c r="AR379" s="3"/>
-    </row>
-    <row r="380" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS379" s="3"/>
+    </row>
+    <row r="380" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -18345,8 +18781,9 @@
       <c r="AP380" s="3"/>
       <c r="AQ380" s="3"/>
       <c r="AR380" s="3"/>
-    </row>
-    <row r="381" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS380" s="3"/>
+    </row>
+    <row r="381" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -18391,8 +18828,9 @@
       <c r="AP381" s="3"/>
       <c r="AQ381" s="3"/>
       <c r="AR381" s="3"/>
-    </row>
-    <row r="382" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS381" s="3"/>
+    </row>
+    <row r="382" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -18437,8 +18875,9 @@
       <c r="AP382" s="3"/>
       <c r="AQ382" s="3"/>
       <c r="AR382" s="3"/>
-    </row>
-    <row r="383" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS382" s="3"/>
+    </row>
+    <row r="383" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -18483,8 +18922,9 @@
       <c r="AP383" s="3"/>
       <c r="AQ383" s="3"/>
       <c r="AR383" s="3"/>
-    </row>
-    <row r="384" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS383" s="3"/>
+    </row>
+    <row r="384" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -18529,8 +18969,9 @@
       <c r="AP384" s="3"/>
       <c r="AQ384" s="3"/>
       <c r="AR384" s="3"/>
-    </row>
-    <row r="385" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS384" s="3"/>
+    </row>
+    <row r="385" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -18575,8 +19016,9 @@
       <c r="AP385" s="3"/>
       <c r="AQ385" s="3"/>
       <c r="AR385" s="3"/>
-    </row>
-    <row r="386" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS385" s="3"/>
+    </row>
+    <row r="386" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -18621,52 +19063,7 @@
       <c r="AP386" s="3"/>
       <c r="AQ386" s="3"/>
       <c r="AR386" s="3"/>
-    </row>
-    <row r="387" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A387" s="3"/>
-      <c r="B387" s="3"/>
-      <c r="C387" s="3"/>
-      <c r="D387" s="3"/>
-      <c r="E387" s="3"/>
-      <c r="F387" s="3"/>
-      <c r="G387" s="3"/>
-      <c r="H387" s="3"/>
-      <c r="I387" s="3"/>
-      <c r="J387" s="3"/>
-      <c r="K387" s="3"/>
-      <c r="L387" s="3"/>
-      <c r="M387" s="3"/>
-      <c r="N387" s="3"/>
-      <c r="O387" s="3"/>
-      <c r="P387" s="3"/>
-      <c r="Q387" s="3"/>
-      <c r="R387" s="3"/>
-      <c r="S387" s="3"/>
-      <c r="T387" s="3"/>
-      <c r="U387" s="3"/>
-      <c r="V387" s="3"/>
-      <c r="W387" s="3"/>
-      <c r="X387" s="3"/>
-      <c r="Y387" s="3"/>
-      <c r="Z387" s="3"/>
-      <c r="AA387" s="3"/>
-      <c r="AB387" s="3"/>
-      <c r="AC387" s="3"/>
-      <c r="AD387" s="3"/>
-      <c r="AE387" s="3"/>
-      <c r="AF387" s="3"/>
-      <c r="AG387" s="3"/>
-      <c r="AH387" s="3"/>
-      <c r="AI387" s="3"/>
-      <c r="AJ387" s="3"/>
-      <c r="AK387" s="3"/>
-      <c r="AL387" s="3"/>
-      <c r="AM387" s="3"/>
-      <c r="AN387" s="3"/>
-      <c r="AO387" s="3"/>
-      <c r="AP387" s="3"/>
-      <c r="AQ387" s="3"/>
-      <c r="AR387" s="3"/>
+      <c r="AS386" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18678,39 +19075,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AC401"/>
+  <dimension ref="A1:AC400"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18815,8 +19211,8 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -19972,9 +20368,6 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19983,23 +20376,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4392"/>
+  <dimension ref="A1:H4391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
@@ -22493,7 +22886,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
-      <c r="B276" s="4"/>
+      <c r="B276" s="5"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -22502,7 +22895,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
-      <c r="B277" s="5"/>
+      <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -22637,7 +23030,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="4"/>
-      <c r="B292" s="4"/>
+      <c r="B292" s="5"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -22646,7 +23039,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
-      <c r="B293" s="5"/>
+      <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -22763,7 +23156,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="4"/>
-      <c r="B306" s="4"/>
+      <c r="B306" s="5"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -22772,7 +23165,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="4"/>
-      <c r="B307" s="5"/>
+      <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -23465,7 +23858,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="4"/>
-      <c r="B384" s="4"/>
+      <c r="B384" s="5"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -23474,7 +23867,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="4"/>
-      <c r="B385" s="5"/>
+      <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -23853,7 +24246,7 @@
     <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
-      <c r="C427" s="4"/>
+      <c r="C427" s="5"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
@@ -23862,7 +24255,7 @@
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
-      <c r="C428" s="5"/>
+      <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
@@ -23889,7 +24282,7 @@
     <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
-      <c r="C431" s="4"/>
+      <c r="C431" s="5"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
@@ -23898,7 +24291,7 @@
     <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
-      <c r="C432" s="5"/>
+      <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
@@ -23925,7 +24318,7 @@
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
-      <c r="C435" s="4"/>
+      <c r="C435" s="5"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
@@ -23934,7 +24327,7 @@
     <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
-      <c r="C436" s="5"/>
+      <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
@@ -24222,7 +24615,7 @@
     <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
-      <c r="C468" s="4"/>
+      <c r="C468" s="5"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
@@ -24231,7 +24624,7 @@
     <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
-      <c r="C469" s="5"/>
+      <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
@@ -24249,7 +24642,7 @@
     <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
-      <c r="C471" s="4"/>
+      <c r="C471" s="5"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
@@ -24258,7 +24651,7 @@
     <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
-      <c r="C472" s="5"/>
+      <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
@@ -24285,7 +24678,7 @@
     <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
-      <c r="C475" s="4"/>
+      <c r="C475" s="5"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
@@ -24294,7 +24687,7 @@
     <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
-      <c r="C476" s="5"/>
+      <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
@@ -24321,7 +24714,7 @@
     <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
-      <c r="C479" s="4"/>
+      <c r="C479" s="5"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
@@ -24330,7 +24723,7 @@
     <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
-      <c r="C480" s="5"/>
+      <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
@@ -24402,7 +24795,7 @@
     <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
-      <c r="C488" s="4"/>
+      <c r="C488" s="5"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
@@ -24411,7 +24804,7 @@
     <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
-      <c r="C489" s="5"/>
+      <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
@@ -24429,7 +24822,7 @@
     <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
-      <c r="C491" s="4"/>
+      <c r="C491" s="5"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
@@ -24438,7 +24831,7 @@
     <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
-      <c r="C492" s="5"/>
+      <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
@@ -24645,7 +25038,7 @@
     <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
-      <c r="C515" s="4"/>
+      <c r="C515" s="5"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
@@ -24663,7 +25056,7 @@
     <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
-      <c r="C517" s="5"/>
+      <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
@@ -24672,7 +25065,7 @@
     <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
-      <c r="C518" s="4"/>
+      <c r="C518" s="5"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
@@ -24690,7 +25083,7 @@
     <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
-      <c r="C520" s="5"/>
+      <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
@@ -24717,7 +25110,7 @@
     <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
-      <c r="C523" s="4"/>
+      <c r="C523" s="5"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
@@ -24726,7 +25119,7 @@
     <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
-      <c r="C524" s="5"/>
+      <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
@@ -24753,7 +25146,7 @@
     <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
-      <c r="C527" s="4"/>
+      <c r="C527" s="5"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
@@ -24762,7 +25155,7 @@
     <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
-      <c r="C528" s="5"/>
+      <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
@@ -25050,7 +25443,7 @@
     <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
-      <c r="C560" s="4"/>
+      <c r="C560" s="5"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
@@ -25059,7 +25452,7 @@
     <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
-      <c r="C561" s="5"/>
+      <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
@@ -25068,7 +25461,7 @@
     <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
-      <c r="C562" s="4"/>
+      <c r="C562" s="5"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
@@ -25086,7 +25479,7 @@
     <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
-      <c r="C564" s="5"/>
+      <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
@@ -25113,7 +25506,7 @@
     <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
-      <c r="C567" s="4"/>
+      <c r="C567" s="5"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
@@ -25122,7 +25515,7 @@
     <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
-      <c r="C568" s="5"/>
+      <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
@@ -25149,7 +25542,7 @@
     <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
-      <c r="C571" s="4"/>
+      <c r="C571" s="5"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
@@ -25158,7 +25551,7 @@
     <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
-      <c r="C572" s="5"/>
+      <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
@@ -25185,7 +25578,7 @@
     <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
-      <c r="C575" s="4"/>
+      <c r="C575" s="5"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
@@ -25194,7 +25587,7 @@
     <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
-      <c r="C576" s="5"/>
+      <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
@@ -25230,7 +25623,7 @@
     <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
-      <c r="C580" s="4"/>
+      <c r="C580" s="5"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
@@ -25239,7 +25632,7 @@
     <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
-      <c r="C581" s="5"/>
+      <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
@@ -25257,7 +25650,7 @@
     <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
-      <c r="C583" s="4"/>
+      <c r="C583" s="5"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
@@ -25275,7 +25668,7 @@
     <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
-      <c r="C585" s="5"/>
+      <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
@@ -25293,7 +25686,7 @@
     <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
-      <c r="C587" s="4"/>
+      <c r="C587" s="5"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
@@ -25302,7 +25695,7 @@
     <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
-      <c r="C588" s="5"/>
+      <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
@@ -25473,7 +25866,7 @@
     <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
-      <c r="C607" s="4"/>
+      <c r="C607" s="5"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
@@ -25482,7 +25875,7 @@
     <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
-      <c r="C608" s="5"/>
+      <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
@@ -25509,7 +25902,7 @@
     <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
-      <c r="C611" s="4"/>
+      <c r="C611" s="5"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
@@ -25518,7 +25911,7 @@
     <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
-      <c r="C612" s="5"/>
+      <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
@@ -25545,7 +25938,7 @@
     <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
-      <c r="C615" s="4"/>
+      <c r="C615" s="5"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
@@ -25554,7 +25947,7 @@
     <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
-      <c r="C616" s="5"/>
+      <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
@@ -25842,7 +26235,7 @@
     <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
-      <c r="C648" s="4"/>
+      <c r="C648" s="5"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
@@ -25851,7 +26244,7 @@
     <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
-      <c r="C649" s="5"/>
+      <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
@@ -25869,7 +26262,7 @@
     <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
-      <c r="C651" s="4"/>
+      <c r="C651" s="5"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
@@ -25878,7 +26271,7 @@
     <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
-      <c r="C652" s="5"/>
+      <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
@@ -25905,7 +26298,7 @@
     <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
-      <c r="C655" s="4"/>
+      <c r="C655" s="5"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
@@ -25914,7 +26307,7 @@
     <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
-      <c r="C656" s="5"/>
+      <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
@@ -25941,7 +26334,7 @@
     <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
-      <c r="C659" s="4"/>
+      <c r="C659" s="5"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
@@ -25950,7 +26343,7 @@
     <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
-      <c r="C660" s="5"/>
+      <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
@@ -44499,7 +44892,7 @@
     <row r="2721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2721" s="4"/>
       <c r="B2721" s="4"/>
-      <c r="C2721" s="4"/>
+      <c r="C2721" s="5"/>
       <c r="D2721" s="4"/>
       <c r="E2721" s="4"/>
       <c r="F2721" s="4"/>
@@ -44508,7 +44901,7 @@
     <row r="2722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2722" s="4"/>
       <c r="B2722" s="4"/>
-      <c r="C2722" s="5"/>
+      <c r="C2722" s="4"/>
       <c r="D2722" s="4"/>
       <c r="E2722" s="4"/>
       <c r="F2722" s="4"/>
@@ -44580,7 +44973,7 @@
     <row r="2730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2730" s="4"/>
       <c r="B2730" s="4"/>
-      <c r="C2730" s="4"/>
+      <c r="C2730" s="5"/>
       <c r="D2730" s="4"/>
       <c r="E2730" s="4"/>
       <c r="F2730" s="4"/>
@@ -44589,7 +44982,7 @@
     <row r="2731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2731" s="4"/>
       <c r="B2731" s="4"/>
-      <c r="C2731" s="5"/>
+      <c r="C2731" s="4"/>
       <c r="D2731" s="4"/>
       <c r="E2731" s="4"/>
       <c r="F2731" s="4"/>
@@ -44598,7 +44991,7 @@
     <row r="2732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2732" s="4"/>
       <c r="B2732" s="4"/>
-      <c r="C2732" s="4"/>
+      <c r="C2732" s="5"/>
       <c r="D2732" s="4"/>
       <c r="E2732" s="4"/>
       <c r="F2732" s="4"/>
@@ -44616,7 +45009,7 @@
     <row r="2734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2734" s="4"/>
       <c r="B2734" s="4"/>
-      <c r="C2734" s="5"/>
+      <c r="C2734" s="4"/>
       <c r="D2734" s="4"/>
       <c r="E2734" s="4"/>
       <c r="F2734" s="4"/>
@@ -45534,7 +45927,7 @@
     <row r="2836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2836" s="4"/>
       <c r="B2836" s="4"/>
-      <c r="C2836" s="4"/>
+      <c r="C2836" s="5"/>
       <c r="D2836" s="4"/>
       <c r="E2836" s="4"/>
       <c r="F2836" s="4"/>
@@ -45552,7 +45945,7 @@
     <row r="2838" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2838" s="4"/>
       <c r="B2838" s="4"/>
-      <c r="C2838" s="5"/>
+      <c r="C2838" s="4"/>
       <c r="D2838" s="4"/>
       <c r="E2838" s="4"/>
       <c r="F2838" s="4"/>
@@ -45651,7 +46044,7 @@
     <row r="2849" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2849" s="4"/>
       <c r="B2849" s="4"/>
-      <c r="C2849" s="4"/>
+      <c r="C2849" s="5"/>
       <c r="D2849" s="4"/>
       <c r="E2849" s="4"/>
       <c r="F2849" s="4"/>
@@ -45669,7 +46062,7 @@
     <row r="2851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2851" s="4"/>
       <c r="B2851" s="4"/>
-      <c r="C2851" s="5"/>
+      <c r="C2851" s="4"/>
       <c r="D2851" s="4"/>
       <c r="E2851" s="4"/>
       <c r="F2851" s="4"/>
@@ -51176,7 +51569,7 @@
     </row>
     <row r="3463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3463" s="4"/>
-      <c r="B3463" s="4"/>
+      <c r="B3463" s="5"/>
       <c r="C3463" s="4"/>
       <c r="D3463" s="4"/>
       <c r="E3463" s="4"/>
@@ -51185,7 +51578,7 @@
     </row>
     <row r="3464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3464" s="4"/>
-      <c r="B3464" s="5"/>
+      <c r="B3464" s="4"/>
       <c r="C3464" s="4"/>
       <c r="D3464" s="4"/>
       <c r="E3464" s="4"/>
@@ -59385,7 +59778,7 @@
     <row r="4375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4375" s="4"/>
       <c r="B4375" s="4"/>
-      <c r="C4375" s="4"/>
+      <c r="C4375" s="5"/>
       <c r="D4375" s="4"/>
       <c r="E4375" s="4"/>
       <c r="F4375" s="4"/>
@@ -59394,7 +59787,7 @@
     <row r="4376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4376" s="4"/>
       <c r="B4376" s="4"/>
-      <c r="C4376" s="5"/>
+      <c r="C4376" s="4"/>
       <c r="D4376" s="4"/>
       <c r="E4376" s="4"/>
       <c r="F4376" s="4"/>
@@ -59421,7 +59814,7 @@
     <row r="4379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4379" s="4"/>
       <c r="B4379" s="4"/>
-      <c r="C4379" s="4"/>
+      <c r="C4379" s="5"/>
       <c r="D4379" s="4"/>
       <c r="E4379" s="4"/>
       <c r="F4379" s="4"/>
@@ -59430,7 +59823,7 @@
     <row r="4380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4380" s="4"/>
       <c r="B4380" s="4"/>
-      <c r="C4380" s="5"/>
+      <c r="C4380" s="4"/>
       <c r="D4380" s="4"/>
       <c r="E4380" s="4"/>
       <c r="F4380" s="4"/>
@@ -59457,7 +59850,7 @@
     <row r="4383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4383" s="4"/>
       <c r="B4383" s="4"/>
-      <c r="C4383" s="4"/>
+      <c r="C4383" s="5"/>
       <c r="D4383" s="4"/>
       <c r="E4383" s="4"/>
       <c r="F4383" s="4"/>
@@ -59466,7 +59859,7 @@
     <row r="4384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4384" s="4"/>
       <c r="B4384" s="4"/>
-      <c r="C4384" s="5"/>
+      <c r="C4384" s="4"/>
       <c r="D4384" s="4"/>
       <c r="E4384" s="4"/>
       <c r="F4384" s="4"/>
@@ -59493,7 +59886,7 @@
     <row r="4387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4387" s="4"/>
       <c r="B4387" s="4"/>
-      <c r="C4387" s="4"/>
+      <c r="C4387" s="5"/>
       <c r="D4387" s="4"/>
       <c r="E4387" s="4"/>
       <c r="F4387" s="4"/>
@@ -59502,7 +59895,7 @@
     <row r="4388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4388" s="4"/>
       <c r="B4388" s="4"/>
-      <c r="C4388" s="5"/>
+      <c r="C4388" s="4"/>
       <c r="D4388" s="4"/>
       <c r="E4388" s="4"/>
       <c r="F4388" s="4"/>
@@ -59529,25 +59922,16 @@
     <row r="4391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4391" s="4"/>
       <c r="B4391" s="4"/>
-      <c r="C4391" s="4"/>
+      <c r="C4391" s="5"/>
       <c r="D4391" s="4"/>
       <c r="E4391" s="4"/>
       <c r="F4391" s="4"/>
       <c r="G4391" s="4"/>
     </row>
-    <row r="4392" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4392" s="4"/>
-      <c r="B4392" s="4"/>
-      <c r="C4392" s="5"/>
-      <c r="D4392" s="4"/>
-      <c r="E4392" s="4"/>
-      <c r="F4392" s="4"/>
-      <c r="G4392" s="4"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F4392">
-    <sortCondition ref="A2:A4392"/>
-    <sortCondition ref="B2:B4392"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F4391">
+    <sortCondition ref="A2:A4391"/>
+    <sortCondition ref="B2:B4391"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
